--- a/Kody modelowe x.xlsx
+++ b/Kody modelowe x.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>Table 1</t>
   </si>
@@ -176,6 +176,345 @@
   </si>
   <si>
     <t>520d xDrive Limuzyna</t>
+  </si>
+  <si>
+    <t>61CM</t>
+  </si>
+  <si>
+    <t>G42</t>
+  </si>
+  <si>
+    <t>Coupe</t>
+  </si>
+  <si>
+    <t>218i Coupe</t>
+  </si>
+  <si>
+    <t>RWD</t>
+  </si>
+  <si>
+    <t>11CN</t>
+  </si>
+  <si>
+    <t>220d Coupe</t>
+  </si>
+  <si>
+    <t>11CM</t>
+  </si>
+  <si>
+    <t>220i Coupe</t>
+  </si>
+  <si>
+    <t>21CM</t>
+  </si>
+  <si>
+    <t>230i Coupe</t>
+  </si>
+  <si>
+    <t>51FA</t>
+  </si>
+  <si>
+    <t>M240i xDrive Coupe</t>
+  </si>
+  <si>
+    <t>41GG</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>216 Gran Coupe</t>
+  </si>
+  <si>
+    <t>11GH</t>
+  </si>
+  <si>
+    <t>218d Gran Coupe</t>
+  </si>
+  <si>
+    <t>31GH</t>
+  </si>
+  <si>
+    <t>220 Gran Coupe</t>
+  </si>
+  <si>
+    <t>21GH</t>
+  </si>
+  <si>
+    <t>220d Gran Coupe</t>
+  </si>
+  <si>
+    <t>71GG</t>
+  </si>
+  <si>
+    <t>223 xDrive Gran Coupe</t>
+  </si>
+  <si>
+    <t>31GG</t>
+  </si>
+  <si>
+    <t>M235 xDrive Gran Coupe</t>
+  </si>
+  <si>
+    <t>31DM</t>
+  </si>
+  <si>
+    <t>G87</t>
+  </si>
+  <si>
+    <t>Seria M</t>
+  </si>
+  <si>
+    <t>M2 CS Coupe</t>
+  </si>
+  <si>
+    <t>21DM</t>
+  </si>
+  <si>
+    <t>M2 Coupe</t>
+  </si>
+  <si>
+    <t>31HJ</t>
+  </si>
+  <si>
+    <t>G80</t>
+  </si>
+  <si>
+    <t>M3 Competition M xDrive Sedan</t>
+  </si>
+  <si>
+    <t>21HJ</t>
+  </si>
+  <si>
+    <t>M3 Competition Sedan</t>
+  </si>
+  <si>
+    <t>11HJ</t>
+  </si>
+  <si>
+    <t>M3 Sedan</t>
+  </si>
+  <si>
+    <t>31GB</t>
+  </si>
+  <si>
+    <t>G81</t>
+  </si>
+  <si>
+    <t>Touring</t>
+  </si>
+  <si>
+    <t>M3 CS Touring</t>
+  </si>
+  <si>
+    <t>21GB</t>
+  </si>
+  <si>
+    <t>28FU</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>Seria 3</t>
+  </si>
+  <si>
+    <t>318d Sedan</t>
+  </si>
+  <si>
+    <t>21FF</t>
+  </si>
+  <si>
+    <t>318i Sedan</t>
+  </si>
+  <si>
+    <t>28FF</t>
+  </si>
+  <si>
+    <t>38FU</t>
+  </si>
+  <si>
+    <t>320d Sedan</t>
+  </si>
+  <si>
+    <t>41FU</t>
+  </si>
+  <si>
+    <t>320d xDrive Sedan</t>
+  </si>
+  <si>
+    <t>48FU</t>
+  </si>
+  <si>
+    <t>58FF</t>
+  </si>
+  <si>
+    <t>320i Sedan</t>
+  </si>
+  <si>
+    <t>78FF</t>
+  </si>
+  <si>
+    <t>320i xDrive Sedan</t>
+  </si>
+  <si>
+    <t>71FF</t>
+  </si>
+  <si>
+    <t>58FU</t>
+  </si>
+  <si>
+    <t>330d xDrive Sedan</t>
+  </si>
+  <si>
+    <t>51FU</t>
+  </si>
+  <si>
+    <t>41GK</t>
+  </si>
+  <si>
+    <t>330e Sedan</t>
+  </si>
+  <si>
+    <t>48GK</t>
+  </si>
+  <si>
+    <t>51GK</t>
+  </si>
+  <si>
+    <t>330e xDrive Sedan</t>
+  </si>
+  <si>
+    <t>58GK</t>
+  </si>
+  <si>
+    <t>88FF</t>
+  </si>
+  <si>
+    <t>330i xDrive Sedan</t>
+  </si>
+  <si>
+    <t>81FF</t>
+  </si>
+  <si>
+    <t>68FU</t>
+  </si>
+  <si>
+    <t>M340d xDrive Sedan</t>
+  </si>
+  <si>
+    <t>61FU</t>
+  </si>
+  <si>
+    <t>61FT</t>
+  </si>
+  <si>
+    <t>M340i xDrive Sedan</t>
+  </si>
+  <si>
+    <t>68FT</t>
+  </si>
+  <si>
+    <t>11FZ</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>318d Touring</t>
+  </si>
+  <si>
+    <t>11FY</t>
+  </si>
+  <si>
+    <t>318i Touring</t>
+  </si>
+  <si>
+    <t>21FZ</t>
+  </si>
+  <si>
+    <t>320d Touring</t>
+  </si>
+  <si>
+    <t>31FZ</t>
+  </si>
+  <si>
+    <t>320d xDrive Touring</t>
+  </si>
+  <si>
+    <t>21FY</t>
+  </si>
+  <si>
+    <t>320i Touring</t>
+  </si>
+  <si>
+    <t>51FZ</t>
+  </si>
+  <si>
+    <t>330d xDrive Touring</t>
+  </si>
+  <si>
+    <t>41GL</t>
+  </si>
+  <si>
+    <t>330e Touriung</t>
+  </si>
+  <si>
+    <t>51GL</t>
+  </si>
+  <si>
+    <t>330e xDrive Touring</t>
+  </si>
+  <si>
+    <t>71FY</t>
+  </si>
+  <si>
+    <t>330i xDrive Touring</t>
+  </si>
+  <si>
+    <t>61FZ</t>
+  </si>
+  <si>
+    <t>M340d xDrive Touring</t>
+  </si>
+  <si>
+    <t>21GL</t>
+  </si>
+  <si>
+    <t>M340i xDrive Touring</t>
+  </si>
+  <si>
+    <t>41BA</t>
+  </si>
+  <si>
+    <t>G83</t>
+  </si>
+  <si>
+    <t>Cabrio</t>
+  </si>
+  <si>
+    <t>M4 Competition M xDrive Cabrio</t>
+  </si>
+  <si>
+    <t>21HK</t>
+  </si>
+  <si>
+    <t>G82</t>
+  </si>
+  <si>
+    <t>M4 Competition Coupe</t>
+  </si>
+  <si>
+    <t>31HK</t>
+  </si>
+  <si>
+    <t>M4 Competition M xDrive Coupe</t>
+  </si>
+  <si>
+    <t>11HK</t>
+  </si>
+  <si>
+    <t>M4 Coupe</t>
   </si>
 </sst>
 </file>
@@ -342,7 +681,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -358,6 +697,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -368,7 +710,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -379,14 +727,29 @@
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,7 +1800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:L23"/>
+  <dimension ref="A2:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1445,7 +1808,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="12" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88281" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.0078" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.2734" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1406" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6562" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7656" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.22656" style="1" customWidth="1"/>
+    <col min="8" max="9" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.53125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.0781" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7266" style="1" customWidth="1"/>
     <col min="13" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1479,673 +1852,2617 @@
       <c r="E2" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="H2" t="s" s="4">
+      <c r="H2" t="s" s="5">
         <v>7</v>
       </c>
       <c r="I2" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="J2" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="K2" t="s" s="4">
+      <c r="K2" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="L2" t="s" s="4">
+      <c r="L2" t="s" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s" s="6">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>116</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="10">
         <v>122</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="10">
         <v>9.800000000000001</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="I3" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="J3" t="s" s="7">
+      <c r="J3" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="10">
         <v>210</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="10">
         <v>380</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" t="s" s="10">
+      <c r="A4" s="12"/>
+      <c r="B4" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="11">
+      <c r="D4" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="E4" t="s" s="11">
+      <c r="E4" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F4" t="s" s="11">
+      <c r="F4" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="16">
         <v>150</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="16">
         <v>8.300000000000001</v>
       </c>
-      <c r="I4" t="s" s="11">
+      <c r="I4" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="J4" t="s" s="11">
+      <c r="J4" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <v>222</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="16">
         <v>380</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" t="s" s="10">
+      <c r="A5" s="12"/>
+      <c r="B5" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="C5" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="D5" t="s" s="11">
+      <c r="D5" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="E5" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="18">
         <v>120</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="16">
         <v>170</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="16">
         <v>7.8</v>
       </c>
-      <c r="I5" t="s" s="11">
+      <c r="I5" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="J5" t="s" s="11">
+      <c r="J5" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <v>226</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="16">
         <v>300</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" t="s" s="10">
+      <c r="A6" s="12"/>
+      <c r="B6" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="C6" t="s" s="11">
+      <c r="C6" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="D6" t="s" s="11">
+      <c r="D6" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="E6" t="s" s="11">
+      <c r="E6" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F6" t="s" s="11">
+      <c r="F6" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="16">
         <v>163</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="16">
         <v>7.9</v>
       </c>
-      <c r="I6" t="s" s="11">
+      <c r="I6" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="J6" t="s" s="11">
+      <c r="J6" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <v>222</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="16">
         <v>300</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" t="s" s="10">
+      <c r="A7" s="12"/>
+      <c r="B7" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="C7" t="s" s="11">
+      <c r="C7" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="D7" t="s" s="11">
+      <c r="D7" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="E7" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="F7" t="s" s="15">
         <v>25</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="16">
         <v>218</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="16">
         <v>6.3</v>
       </c>
-      <c r="I7" t="s" s="11">
+      <c r="I7" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="J7" t="s" s="11">
+      <c r="J7" t="s" s="17">
         <v>26</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="16">
         <v>246</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="16">
         <v>300</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" t="s" s="10">
+      <c r="A8" s="12"/>
+      <c r="B8" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="C8" t="s" s="11">
+      <c r="C8" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="D8" t="s" s="11">
+      <c r="D8" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="E8" t="s" s="11">
+      <c r="E8" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F8" t="s" s="11">
+      <c r="F8" t="s" s="15">
         <v>28</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="16">
         <v>300</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="16">
         <v>4.9</v>
       </c>
-      <c r="I8" t="s" s="11">
+      <c r="I8" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="J8" t="s" s="11">
+      <c r="J8" t="s" s="17">
         <v>26</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="16">
         <v>250</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="16">
         <v>380</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s" s="10">
+      <c r="A9" s="12"/>
+      <c r="B9" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="C9" t="s" s="11">
+      <c r="C9" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="D9" t="s" s="11">
+      <c r="D9" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="E9" t="s" s="11">
+      <c r="E9" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F9" t="s" s="11">
+      <c r="F9" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="16">
         <v>122</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="16">
         <v>10.3</v>
       </c>
-      <c r="I9" t="s" s="11">
+      <c r="I9" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="J9" t="s" s="11">
+      <c r="J9" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="16">
         <v>206</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="16">
         <v>470</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" t="s" s="10">
+      <c r="A10" s="12"/>
+      <c r="B10" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="C10" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="D10" t="s" s="11">
+      <c r="D10" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="E10" t="s" s="11">
+      <c r="E10" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F10" t="s" s="11">
+      <c r="F10" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="16">
         <v>150</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="16">
         <v>8.800000000000001</v>
       </c>
-      <c r="I10" t="s" s="11">
+      <c r="I10" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="J10" t="s" s="11">
+      <c r="J10" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="16">
         <v>220</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="16">
         <v>470</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" t="s" s="10">
+      <c r="A11" s="12"/>
+      <c r="B11" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="C11" t="s" s="11">
+      <c r="C11" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="D11" t="s" s="11">
+      <c r="D11" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="E11" t="s" s="11">
+      <c r="E11" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F11" t="s" s="11">
+      <c r="F11" t="s" s="15">
         <v>36</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="16">
         <v>136</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="16">
         <v>9</v>
       </c>
-      <c r="I11" t="s" s="11">
+      <c r="I11" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="J11" t="s" s="11">
+      <c r="J11" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="16">
         <v>214</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="16">
         <v>470</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" t="s" s="10">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="C12" t="s" s="11">
+      <c r="C12" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="D12" t="s" s="11">
+      <c r="D12" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="E12" t="s" s="11">
+      <c r="E12" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F12" t="s" s="11">
+      <c r="F12" t="s" s="15">
         <v>38</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="16">
         <v>163</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="16">
         <v>8.300000000000001</v>
       </c>
-      <c r="I12" t="s" s="11">
+      <c r="I12" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="J12" t="s" s="11">
+      <c r="J12" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="16">
         <v>220</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="16">
         <v>415</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" t="s" s="10">
+      <c r="A13" s="12"/>
+      <c r="B13" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="C13" t="s" s="11">
+      <c r="C13" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="D13" t="s" s="11">
+      <c r="D13" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="E13" t="s" s="11">
+      <c r="E13" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F13" t="s" s="11">
+      <c r="F13" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="16">
         <v>170</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="16">
         <v>8.1</v>
       </c>
-      <c r="I13" t="s" s="11">
+      <c r="I13" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="J13" t="s" s="11">
+      <c r="J13" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="16">
         <v>221</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="16">
         <v>415</v>
       </c>
     </row>
-    <row r="14" ht="32.05" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" t="s" s="10">
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="C14" t="s" s="11">
+      <c r="C14" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="D14" t="s" s="11">
+      <c r="D14" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="E14" t="s" s="11">
+      <c r="E14" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F14" t="s" s="11">
+      <c r="F14" t="s" s="15">
         <v>42</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="16">
         <v>211</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="16">
         <v>7.3</v>
       </c>
-      <c r="I14" t="s" s="11">
+      <c r="I14" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="J14" t="s" s="11">
+      <c r="J14" t="s" s="17">
         <v>26</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="16">
         <v>233</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="16">
         <v>415</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" t="s" s="10">
+      <c r="A15" s="12"/>
+      <c r="B15" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="C15" t="s" s="11">
+      <c r="C15" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="D15" t="s" s="11">
+      <c r="D15" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="E15" t="s" s="11">
+      <c r="E15" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F15" t="s" s="11">
+      <c r="F15" t="s" s="15">
         <v>44</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="16">
         <v>218</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="16">
         <v>6.9</v>
       </c>
-      <c r="I15" t="s" s="11">
+      <c r="I15" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="J15" t="s" s="11">
+      <c r="J15" t="s" s="17">
         <v>26</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="16">
         <v>238</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="16">
         <v>415</v>
       </c>
     </row>
-    <row r="16" ht="32.05" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" t="s" s="10">
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="C16" t="s" s="11">
+      <c r="C16" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="D16" t="s" s="11">
+      <c r="D16" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="E16" t="s" s="11">
+      <c r="E16" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F16" t="s" s="11">
+      <c r="F16" t="s" s="15">
         <v>46</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="16">
         <v>245</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="16">
         <v>6.7</v>
       </c>
-      <c r="I16" t="s" s="11">
+      <c r="I16" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="J16" t="s" s="11">
+      <c r="J16" t="s" s="17">
         <v>26</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="16">
         <v>195</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="16">
         <v>406</v>
       </c>
     </row>
-    <row r="17" ht="32.05" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" t="s" s="10">
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" t="s" s="13">
         <v>48</v>
       </c>
-      <c r="C17" t="s" s="11">
+      <c r="C17" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="D17" t="s" s="11">
+      <c r="D17" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="E17" t="s" s="11">
+      <c r="E17" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="F17" t="s" s="11">
+      <c r="F17" t="s" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="16">
         <v>326</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="16">
         <v>5.5</v>
       </c>
-      <c r="I17" t="s" s="11">
+      <c r="I17" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="J17" t="s" s="11">
+      <c r="J17" t="s" s="17">
         <v>26</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="16">
         <v>205</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="16">
         <v>406</v>
       </c>
     </row>
-    <row r="18" ht="32.05" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" t="s" s="10">
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="C18" t="s" s="11">
+      <c r="C18" t="s" s="14">
         <v>51</v>
       </c>
-      <c r="D18" t="s" s="11">
+      <c r="D18" t="s" s="14">
         <v>52</v>
       </c>
-      <c r="E18" t="s" s="11">
+      <c r="E18" t="s" s="14">
         <v>53</v>
       </c>
-      <c r="F18" t="s" s="11">
+      <c r="F18" t="s" s="15">
         <v>54</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="16">
         <v>197</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="16">
         <v>7.3</v>
       </c>
-      <c r="I18" t="s" s="11">
+      <c r="I18" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="J18" t="s" s="11">
+      <c r="J18" t="s" s="17">
         <v>26</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="16">
         <v>228</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="16">
         <v>520</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" t="s" s="13">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s" s="15">
+        <v>58</v>
+      </c>
+      <c r="G19" s="16">
+        <v>156</v>
+      </c>
+      <c r="H19" s="16">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I19" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K19" s="16">
+        <v>224</v>
+      </c>
+      <c r="L19" s="16">
+        <v>390</v>
+      </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="A20" s="12"/>
+      <c r="B20" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s" s="15">
+        <v>61</v>
+      </c>
+      <c r="G20" s="16">
+        <v>190</v>
+      </c>
+      <c r="H20" s="16">
+        <v>6.9</v>
+      </c>
+      <c r="I20" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K20" s="16">
+        <v>237</v>
+      </c>
+      <c r="L20" s="16">
+        <v>390</v>
+      </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="A21" s="12"/>
+      <c r="B21" t="s" s="13">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s" s="15">
+        <v>63</v>
+      </c>
+      <c r="G21" s="16">
+        <v>184</v>
+      </c>
+      <c r="H21" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="I21" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K21" s="16">
+        <v>236</v>
+      </c>
+      <c r="L21" s="16">
+        <v>390</v>
+      </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="A22" s="12"/>
+      <c r="B22" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s" s="15">
+        <v>65</v>
+      </c>
+      <c r="G22" s="16">
+        <v>245</v>
+      </c>
+      <c r="H22" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="I22" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K22" s="16">
+        <v>250</v>
+      </c>
+      <c r="L22" s="16">
+        <v>390</v>
+      </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="A23" s="12"/>
+      <c r="B23" t="s" s="13">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s" s="15">
+        <v>67</v>
+      </c>
+      <c r="G23" s="16">
+        <v>392</v>
+      </c>
+      <c r="H23" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="I23" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K23" s="16">
+        <v>250</v>
+      </c>
+      <c r="L23" s="16">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" t="s" s="13">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s" s="15">
+        <v>70</v>
+      </c>
+      <c r="G24" s="16">
+        <v>122</v>
+      </c>
+      <c r="H24" s="16">
+        <v>9.9</v>
+      </c>
+      <c r="I24" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K24" s="16">
+        <v>214</v>
+      </c>
+      <c r="L24" s="16">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" t="s" s="13">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s" s="15">
+        <v>72</v>
+      </c>
+      <c r="G25" s="16">
+        <v>150</v>
+      </c>
+      <c r="H25" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="I25" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K25" s="16">
+        <v>226</v>
+      </c>
+      <c r="L25" s="16">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" t="s" s="13">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s" s="15">
+        <v>74</v>
+      </c>
+      <c r="G26" s="16">
+        <v>170</v>
+      </c>
+      <c r="H26" s="16">
+        <v>7.9</v>
+      </c>
+      <c r="I26" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K26" s="16">
+        <v>230</v>
+      </c>
+      <c r="L26" s="16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" t="s" s="13">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s" s="15">
+        <v>76</v>
+      </c>
+      <c r="G27" s="16">
+        <v>163</v>
+      </c>
+      <c r="H27" s="16">
+        <v>8</v>
+      </c>
+      <c r="I27" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K27" s="16">
+        <v>226</v>
+      </c>
+      <c r="L27" s="16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" t="s" s="13">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s" s="15">
+        <v>78</v>
+      </c>
+      <c r="G28" s="16">
+        <v>218</v>
+      </c>
+      <c r="H28" s="16">
+        <v>6.4</v>
+      </c>
+      <c r="I28" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K28" s="16">
+        <v>250</v>
+      </c>
+      <c r="L28" s="16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" t="s" s="13">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s" s="15">
+        <v>80</v>
+      </c>
+      <c r="G29" s="16">
+        <v>300</v>
+      </c>
+      <c r="H29" s="16">
+        <v>4.9</v>
+      </c>
+      <c r="I29" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K29" s="16">
+        <v>250</v>
+      </c>
+      <c r="L29" s="16">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" t="s" s="13">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s" s="15">
+        <v>84</v>
+      </c>
+      <c r="G30" s="16">
+        <v>530</v>
+      </c>
+      <c r="H30" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="I30" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K30" s="16">
+        <v>302</v>
+      </c>
+      <c r="L30" s="16">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" t="s" s="13">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s" s="15">
+        <v>86</v>
+      </c>
+      <c r="G31" s="16">
+        <v>480</v>
+      </c>
+      <c r="H31" s="16">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K31" s="16">
+        <v>250</v>
+      </c>
+      <c r="L31" s="16">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" t="s" s="13">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s" s="14">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s" s="15">
+        <v>89</v>
+      </c>
+      <c r="G32" s="16">
+        <v>530</v>
+      </c>
+      <c r="H32" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="I32" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K32" s="16">
+        <v>250</v>
+      </c>
+      <c r="L32" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" t="s" s="13">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s" s="14">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s" s="15">
+        <v>91</v>
+      </c>
+      <c r="G33" s="16">
+        <v>510</v>
+      </c>
+      <c r="H33" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="I33" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K33" s="16">
+        <v>250</v>
+      </c>
+      <c r="L33" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" t="s" s="13">
+        <v>92</v>
+      </c>
+      <c r="C34" t="s" s="14">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s" s="15">
+        <v>93</v>
+      </c>
+      <c r="G34" s="16">
+        <v>480</v>
+      </c>
+      <c r="H34" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="I34" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K34" s="16">
+        <v>250</v>
+      </c>
+      <c r="L34" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" t="s" s="13">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s" s="14">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F35" t="s" s="15">
+        <v>97</v>
+      </c>
+      <c r="G35" s="16">
+        <v>551</v>
+      </c>
+      <c r="H35" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="I35" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K35" s="16">
+        <v>300</v>
+      </c>
+      <c r="L35" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" t="s" s="13">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s" s="14">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E36" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s" s="15">
+        <v>89</v>
+      </c>
+      <c r="G36" s="16">
+        <v>530</v>
+      </c>
+      <c r="H36" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="I36" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K36" s="16">
+        <v>250</v>
+      </c>
+      <c r="L36" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" t="s" s="13">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s" s="15">
+        <v>102</v>
+      </c>
+      <c r="G37" s="16">
+        <v>150</v>
+      </c>
+      <c r="H37" s="16">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I37" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K37" s="16">
+        <v>218</v>
+      </c>
+      <c r="L37" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" t="s" s="13">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E38" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s" s="15">
+        <v>104</v>
+      </c>
+      <c r="G38" s="16">
+        <v>156</v>
+      </c>
+      <c r="H38" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="I38" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K38" s="16">
+        <v>223</v>
+      </c>
+      <c r="L38" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="12"/>
+      <c r="B39" t="s" s="13">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s" s="15">
+        <v>104</v>
+      </c>
+      <c r="G39" s="16">
+        <v>156</v>
+      </c>
+      <c r="H39" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="I39" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K39" s="16">
+        <v>223</v>
+      </c>
+      <c r="L39" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="12"/>
+      <c r="B40" t="s" s="13">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s" s="15">
+        <v>107</v>
+      </c>
+      <c r="G40" s="16">
+        <v>190</v>
+      </c>
+      <c r="H40" s="16">
+        <v>6.9</v>
+      </c>
+      <c r="I40" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K40" s="16">
+        <v>235</v>
+      </c>
+      <c r="L40" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="12"/>
+      <c r="B41" t="s" s="13">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s" s="15">
+        <v>109</v>
+      </c>
+      <c r="G41" s="16">
+        <v>190</v>
+      </c>
+      <c r="H41" s="16">
+        <v>7.2</v>
+      </c>
+      <c r="I41" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K41" s="16">
+        <v>228</v>
+      </c>
+      <c r="L41" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="12"/>
+      <c r="B42" t="s" s="13">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F42" t="s" s="15">
+        <v>109</v>
+      </c>
+      <c r="G42" s="16">
+        <v>190</v>
+      </c>
+      <c r="H42" s="16">
+        <v>7.2</v>
+      </c>
+      <c r="I42" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K42" s="16">
+        <v>228</v>
+      </c>
+      <c r="L42" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" t="s" s="13">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E43" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F43" t="s" s="15">
+        <v>112</v>
+      </c>
+      <c r="G43" s="16">
+        <v>184</v>
+      </c>
+      <c r="H43" s="16">
+        <v>7.4</v>
+      </c>
+      <c r="I43" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K43" s="16">
+        <v>235</v>
+      </c>
+      <c r="L43" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="12"/>
+      <c r="B44" t="s" s="13">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F44" t="s" s="15">
+        <v>114</v>
+      </c>
+      <c r="G44" s="16">
+        <v>184</v>
+      </c>
+      <c r="H44" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="I44" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K44" s="16">
+        <v>230</v>
+      </c>
+      <c r="L44" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" s="12"/>
+      <c r="B45" t="s" s="13">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F45" t="s" s="15">
+        <v>114</v>
+      </c>
+      <c r="G45" s="16">
+        <v>184</v>
+      </c>
+      <c r="H45" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="I45" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K45" s="16">
+        <v>230</v>
+      </c>
+      <c r="L45" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" s="12"/>
+      <c r="B46" t="s" s="13">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E46" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F46" t="s" s="15">
+        <v>117</v>
+      </c>
+      <c r="G46" s="16">
+        <v>286</v>
+      </c>
+      <c r="H46" s="16">
+        <v>5</v>
+      </c>
+      <c r="I46" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K46" s="16">
+        <v>250</v>
+      </c>
+      <c r="L46" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" s="12"/>
+      <c r="B47" t="s" s="13">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D47" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F47" t="s" s="15">
+        <v>117</v>
+      </c>
+      <c r="G47" s="16">
+        <v>286</v>
+      </c>
+      <c r="H47" s="16">
+        <v>5</v>
+      </c>
+      <c r="I47" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K47" s="16">
+        <v>250</v>
+      </c>
+      <c r="L47" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" s="12"/>
+      <c r="B48" t="s" s="13">
+        <v>119</v>
+      </c>
+      <c r="C48" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D48" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E48" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s" s="15">
+        <v>120</v>
+      </c>
+      <c r="G48" s="16">
+        <v>292</v>
+      </c>
+      <c r="H48" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="I48" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J48" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K48" s="16">
+        <v>230</v>
+      </c>
+      <c r="L48" s="16">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="A49" s="12"/>
+      <c r="B49" t="s" s="13">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D49" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E49" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F49" t="s" s="15">
+        <v>120</v>
+      </c>
+      <c r="G49" s="16">
+        <v>292</v>
+      </c>
+      <c r="H49" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="I49" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J49" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K49" s="16">
+        <v>230</v>
+      </c>
+      <c r="L49" s="16">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" ht="20.05" customHeight="1">
+      <c r="A50" s="12"/>
+      <c r="B50" t="s" s="13">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E50" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F50" t="s" s="15">
+        <v>123</v>
+      </c>
+      <c r="G50" s="16">
+        <v>292</v>
+      </c>
+      <c r="H50" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="I50" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J50" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K50" s="16">
+        <v>230</v>
+      </c>
+      <c r="L50" s="16">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51" ht="20.05" customHeight="1">
+      <c r="A51" s="12"/>
+      <c r="B51" t="s" s="13">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E51" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F51" t="s" s="15">
+        <v>123</v>
+      </c>
+      <c r="G51" s="16">
+        <v>292</v>
+      </c>
+      <c r="H51" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="I51" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J51" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K51" s="16">
+        <v>230</v>
+      </c>
+      <c r="L51" s="16">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="A52" s="12"/>
+      <c r="B52" t="s" s="13">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D52" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E52" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F52" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="G52" s="16">
+        <v>245</v>
+      </c>
+      <c r="H52" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="I52" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K52" s="16">
+        <v>250</v>
+      </c>
+      <c r="L52" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="53" ht="20.05" customHeight="1">
+      <c r="A53" s="12"/>
+      <c r="B53" t="s" s="13">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E53" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F53" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="G53" s="16">
+        <v>245</v>
+      </c>
+      <c r="H53" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="I53" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K53" s="16">
+        <v>250</v>
+      </c>
+      <c r="L53" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54" ht="20.05" customHeight="1">
+      <c r="A54" s="12"/>
+      <c r="B54" t="s" s="13">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D54" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E54" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F54" t="s" s="15">
+        <v>129</v>
+      </c>
+      <c r="G54" s="16">
+        <v>340</v>
+      </c>
+      <c r="H54" s="16">
+        <v>4.6</v>
+      </c>
+      <c r="I54" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K54" s="16">
+        <v>250</v>
+      </c>
+      <c r="L54" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55" ht="20.05" customHeight="1">
+      <c r="A55" s="12"/>
+      <c r="B55" t="s" s="13">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D55" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E55" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F55" t="s" s="15">
+        <v>129</v>
+      </c>
+      <c r="G55" s="16">
+        <v>340</v>
+      </c>
+      <c r="H55" s="16">
+        <v>4.6</v>
+      </c>
+      <c r="I55" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K55" s="16">
+        <v>250</v>
+      </c>
+      <c r="L55" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56" ht="20.05" customHeight="1">
+      <c r="A56" s="12"/>
+      <c r="B56" t="s" s="13">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D56" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E56" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F56" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="G56" s="16">
+        <v>392</v>
+      </c>
+      <c r="H56" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="I56" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K56" s="16">
+        <v>250</v>
+      </c>
+      <c r="L56" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="57" ht="20.05" customHeight="1">
+      <c r="A57" s="12"/>
+      <c r="B57" t="s" s="13">
+        <v>133</v>
+      </c>
+      <c r="C57" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D57" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E57" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F57" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="G57" s="16">
+        <v>392</v>
+      </c>
+      <c r="H57" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="I57" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K57" s="16">
+        <v>250</v>
+      </c>
+      <c r="L57" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58" ht="20.05" customHeight="1">
+      <c r="A58" s="12"/>
+      <c r="B58" t="s" s="13">
+        <v>134</v>
+      </c>
+      <c r="C58" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="D58" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E58" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F58" t="s" s="15">
+        <v>136</v>
+      </c>
+      <c r="G58" s="16">
+        <v>150</v>
+      </c>
+      <c r="H58" s="16">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I58" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K58" s="16">
+        <v>213</v>
+      </c>
+      <c r="L58" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" ht="20.05" customHeight="1">
+      <c r="A59" s="12"/>
+      <c r="B59" t="s" s="13">
+        <v>137</v>
+      </c>
+      <c r="C59" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="D59" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E59" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F59" t="s" s="15">
+        <v>138</v>
+      </c>
+      <c r="G59" s="16">
+        <v>156</v>
+      </c>
+      <c r="H59" s="16">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I59" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K59" s="16">
+        <v>218</v>
+      </c>
+      <c r="L59" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" ht="20.05" customHeight="1">
+      <c r="A60" s="12"/>
+      <c r="B60" t="s" s="13">
+        <v>139</v>
+      </c>
+      <c r="C60" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="D60" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E60" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F60" t="s" s="15">
+        <v>140</v>
+      </c>
+      <c r="G60" s="16">
+        <v>190</v>
+      </c>
+      <c r="H60" s="16">
+        <v>7.2</v>
+      </c>
+      <c r="I60" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K60" s="16">
+        <v>229</v>
+      </c>
+      <c r="L60" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" ht="20.05" customHeight="1">
+      <c r="A61" s="12"/>
+      <c r="B61" t="s" s="13">
+        <v>141</v>
+      </c>
+      <c r="C61" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="D61" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E61" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F61" t="s" s="15">
+        <v>142</v>
+      </c>
+      <c r="G61" s="16">
+        <v>190</v>
+      </c>
+      <c r="H61" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="I61" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K61" s="16">
+        <v>225</v>
+      </c>
+      <c r="L61" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" ht="20.05" customHeight="1">
+      <c r="A62" s="12"/>
+      <c r="B62" t="s" s="13">
+        <v>143</v>
+      </c>
+      <c r="C62" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="D62" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E62" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F62" t="s" s="15">
+        <v>144</v>
+      </c>
+      <c r="G62" s="16">
+        <v>184</v>
+      </c>
+      <c r="H62" s="16">
+        <v>7.6</v>
+      </c>
+      <c r="I62" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K62" s="16">
+        <v>230</v>
+      </c>
+      <c r="L62" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" ht="20.05" customHeight="1">
+      <c r="A63" s="12"/>
+      <c r="B63" t="s" s="13">
+        <v>145</v>
+      </c>
+      <c r="C63" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="D63" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E63" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F63" t="s" s="15">
+        <v>146</v>
+      </c>
+      <c r="G63" s="16">
+        <v>286</v>
+      </c>
+      <c r="H63" s="16">
+        <v>5.2</v>
+      </c>
+      <c r="I63" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K63" s="16">
+        <v>250</v>
+      </c>
+      <c r="L63" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" ht="20.05" customHeight="1">
+      <c r="A64" s="12"/>
+      <c r="B64" t="s" s="13">
+        <v>147</v>
+      </c>
+      <c r="C64" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="D64" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E64" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F64" t="s" s="15">
+        <v>148</v>
+      </c>
+      <c r="G64" s="16">
+        <v>292</v>
+      </c>
+      <c r="H64" s="16">
+        <v>6</v>
+      </c>
+      <c r="I64" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J64" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K64" s="16">
+        <v>230</v>
+      </c>
+      <c r="L64" s="16">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="65" ht="20.05" customHeight="1">
+      <c r="A65" s="12"/>
+      <c r="B65" t="s" s="13">
+        <v>149</v>
+      </c>
+      <c r="C65" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="D65" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E65" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F65" t="s" s="15">
+        <v>150</v>
+      </c>
+      <c r="G65" s="16">
+        <v>292</v>
+      </c>
+      <c r="H65" s="16">
+        <v>6</v>
+      </c>
+      <c r="I65" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J65" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K65" s="16">
+        <v>230</v>
+      </c>
+      <c r="L65" s="16">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" ht="20.05" customHeight="1">
+      <c r="A66" s="12"/>
+      <c r="B66" t="s" s="13">
+        <v>151</v>
+      </c>
+      <c r="C66" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="D66" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E66" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F66" t="s" s="15">
+        <v>152</v>
+      </c>
+      <c r="G66" s="16">
+        <v>245</v>
+      </c>
+      <c r="H66" s="16">
+        <v>6</v>
+      </c>
+      <c r="I66" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K66" s="16">
+        <v>250</v>
+      </c>
+      <c r="L66" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" ht="20.05" customHeight="1">
+      <c r="A67" s="12"/>
+      <c r="B67" t="s" s="13">
+        <v>153</v>
+      </c>
+      <c r="C67" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="D67" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E67" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F67" t="s" s="15">
+        <v>154</v>
+      </c>
+      <c r="G67" s="16">
+        <v>340</v>
+      </c>
+      <c r="H67" s="16">
+        <v>4.7</v>
+      </c>
+      <c r="I67" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K67" s="16">
+        <v>250</v>
+      </c>
+      <c r="L67" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" ht="20.05" customHeight="1">
+      <c r="A68" s="12"/>
+      <c r="B68" t="s" s="13">
+        <v>155</v>
+      </c>
+      <c r="C68" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="D68" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="E68" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F68" t="s" s="15">
+        <v>156</v>
+      </c>
+      <c r="G68" s="16">
+        <v>392</v>
+      </c>
+      <c r="H68" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="I68" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K68" s="16">
+        <v>250</v>
+      </c>
+      <c r="L68" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" ht="20.05" customHeight="1">
+      <c r="A69" s="12"/>
+      <c r="B69" t="s" s="13">
+        <v>157</v>
+      </c>
+      <c r="C69" t="s" s="14">
+        <v>158</v>
+      </c>
+      <c r="D69" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E69" t="s" s="14">
+        <v>159</v>
+      </c>
+      <c r="F69" t="s" s="15">
+        <v>160</v>
+      </c>
+      <c r="G69" s="16">
+        <v>530</v>
+      </c>
+      <c r="H69" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="I69" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K69" s="16">
+        <v>250</v>
+      </c>
+      <c r="L69" s="16">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" ht="20.05" customHeight="1">
+      <c r="A70" s="12"/>
+      <c r="B70" t="s" s="13">
+        <v>161</v>
+      </c>
+      <c r="C70" t="s" s="14">
+        <v>162</v>
+      </c>
+      <c r="D70" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E70" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F70" t="s" s="15">
+        <v>163</v>
+      </c>
+      <c r="G70" s="16">
+        <v>510</v>
+      </c>
+      <c r="H70" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="I70" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K70" s="16">
+        <v>250</v>
+      </c>
+      <c r="L70" s="16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="71" ht="20.05" customHeight="1">
+      <c r="A71" s="12"/>
+      <c r="B71" t="s" s="13">
+        <v>164</v>
+      </c>
+      <c r="C71" t="s" s="14">
+        <v>162</v>
+      </c>
+      <c r="D71" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E71" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F71" t="s" s="15">
+        <v>165</v>
+      </c>
+      <c r="G71" s="16">
+        <v>530</v>
+      </c>
+      <c r="H71" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="I71" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K71" s="16">
+        <v>250</v>
+      </c>
+      <c r="L71" s="16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" ht="20.05" customHeight="1">
+      <c r="A72" s="12"/>
+      <c r="B72" t="s" s="13">
+        <v>166</v>
+      </c>
+      <c r="C72" t="s" s="14">
+        <v>162</v>
+      </c>
+      <c r="D72" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E72" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F72" t="s" s="15">
+        <v>167</v>
+      </c>
+      <c r="G72" s="16">
+        <v>480</v>
+      </c>
+      <c r="H72" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="I72" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K72" s="16">
+        <v>250</v>
+      </c>
+      <c r="L72" s="16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" ht="20.05" customHeight="1">
+      <c r="A73" s="12"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+    </row>
+    <row r="74" ht="20.05" customHeight="1">
+      <c r="A74" s="12"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+    </row>
+    <row r="75" ht="20.05" customHeight="1">
+      <c r="A75" s="12"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+    </row>
+    <row r="76" ht="20.05" customHeight="1">
+      <c r="A76" s="12"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+    </row>
+    <row r="77" ht="20.05" customHeight="1">
+      <c r="A77" s="12"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Kody modelowe x.xlsx
+++ b/Kody modelowe x.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
   <si>
     <t>Table 1</t>
   </si>
@@ -169,7 +169,7 @@
     <t>G60</t>
   </si>
   <si>
-    <t>Seria 5</t>
+    <t>Seria 5 / i5</t>
   </si>
   <si>
     <t>Sedan/Limuzyna</t>
@@ -301,7 +301,7 @@
     <t>G81</t>
   </si>
   <si>
-    <t>Touring</t>
+    <t>Kombi</t>
   </si>
   <si>
     <t>M3 CS Touring</t>
@@ -310,6 +310,9 @@
     <t>21GB</t>
   </si>
   <si>
+    <t>M3 Competition M xDrive Touring</t>
+  </si>
+  <si>
     <t>28FU</t>
   </si>
   <si>
@@ -515,6 +518,684 @@
   </si>
   <si>
     <t>M4 Coupe</t>
+  </si>
+  <si>
+    <t>51AU</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>Seria 4 / i4</t>
+  </si>
+  <si>
+    <t>420d Convertible</t>
+  </si>
+  <si>
+    <t>81DB</t>
+  </si>
+  <si>
+    <t>420i Convertible</t>
+  </si>
+  <si>
+    <t>61AU</t>
+  </si>
+  <si>
+    <t>430d Convertible</t>
+  </si>
+  <si>
+    <t>41FP</t>
+  </si>
+  <si>
+    <t>430i xDrive Convertible</t>
+  </si>
+  <si>
+    <t>71AU</t>
+  </si>
+  <si>
+    <t>M440d xDrive Convertible</t>
+  </si>
+  <si>
+    <t>71DB</t>
+  </si>
+  <si>
+    <t>M440i xDrive Convertible</t>
+  </si>
+  <si>
+    <t>41FN</t>
+  </si>
+  <si>
+    <t>G22</t>
+  </si>
+  <si>
+    <t>420d Coupe</t>
+  </si>
+  <si>
+    <t>51FN</t>
+  </si>
+  <si>
+    <t>420d xDrive Coupe</t>
+  </si>
+  <si>
+    <t>11HB</t>
+  </si>
+  <si>
+    <t>420i Coupe</t>
+  </si>
+  <si>
+    <t>61FN</t>
+  </si>
+  <si>
+    <t>430d xDrive Coupe</t>
+  </si>
+  <si>
+    <t>51HB</t>
+  </si>
+  <si>
+    <t>430i xDrive Coupe</t>
+  </si>
+  <si>
+    <t>71FN</t>
+  </si>
+  <si>
+    <t>M440d xDrive Coupe</t>
+  </si>
+  <si>
+    <t>81DA</t>
+  </si>
+  <si>
+    <t>M440i xDrive Coupe</t>
+  </si>
+  <si>
+    <t>41FR</t>
+  </si>
+  <si>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>420d Gran Coupe</t>
+  </si>
+  <si>
+    <t>51FR</t>
+  </si>
+  <si>
+    <t>420d xDrive Gran Coupe</t>
+  </si>
+  <si>
+    <t>11HC</t>
+  </si>
+  <si>
+    <t>420i Gran Coupe</t>
+  </si>
+  <si>
+    <t>61FR</t>
+  </si>
+  <si>
+    <t>430d xDrive Gran Coupe</t>
+  </si>
+  <si>
+    <t>41HC</t>
+  </si>
+  <si>
+    <t>430i xDrive Gran Coupe</t>
+  </si>
+  <si>
+    <t>61FB</t>
+  </si>
+  <si>
+    <t>M440i xDrive Gran Coupe</t>
+  </si>
+  <si>
+    <t>71HD</t>
+  </si>
+  <si>
+    <t>i4 M60 xDrive Gran Coupe</t>
+  </si>
+  <si>
+    <t>BEV</t>
+  </si>
+  <si>
+    <t>51HD</t>
+  </si>
+  <si>
+    <t>i4 eDrive35 Gran Coupe</t>
+  </si>
+  <si>
+    <t>61HD</t>
+  </si>
+  <si>
+    <t>i4 eDrive40 Gran Coupe</t>
+  </si>
+  <si>
+    <t>41HD</t>
+  </si>
+  <si>
+    <t>I4 eDrive40 Gran Coupe</t>
+  </si>
+  <si>
+    <t>11FL</t>
+  </si>
+  <si>
+    <t>520d Sedan</t>
+  </si>
+  <si>
+    <t>11FJ</t>
+  </si>
+  <si>
+    <t>520i Sedan</t>
+  </si>
+  <si>
+    <t>71FJ</t>
+  </si>
+  <si>
+    <t>530e Sedan</t>
+  </si>
+  <si>
+    <t>81FJ</t>
+  </si>
+  <si>
+    <t>530e xDrive Sedan</t>
+  </si>
+  <si>
+    <t>31FL</t>
+  </si>
+  <si>
+    <t>540d xDrive Sedan</t>
+  </si>
+  <si>
+    <t>11FK</t>
+  </si>
+  <si>
+    <t>550e xDrive Sedan</t>
+  </si>
+  <si>
+    <t>41HG</t>
+  </si>
+  <si>
+    <t>i5 M60 xDrive Sedan</t>
+  </si>
+  <si>
+    <t>61HG</t>
+  </si>
+  <si>
+    <t>i5 eDrive40 Sedan</t>
+  </si>
+  <si>
+    <t>31HG</t>
+  </si>
+  <si>
+    <t>i5 xDrive40 Sedan</t>
+  </si>
+  <si>
+    <t>11GW</t>
+  </si>
+  <si>
+    <t>G61</t>
+  </si>
+  <si>
+    <t>520d Touring</t>
+  </si>
+  <si>
+    <t>21GW</t>
+  </si>
+  <si>
+    <t>520d xDrive Touring</t>
+  </si>
+  <si>
+    <t>11GV</t>
+  </si>
+  <si>
+    <t>520i Touring</t>
+  </si>
+  <si>
+    <t>21GV</t>
+  </si>
+  <si>
+    <t>530e Touring</t>
+  </si>
+  <si>
+    <t>31GV</t>
+  </si>
+  <si>
+    <t>530e xDrive Touring</t>
+  </si>
+  <si>
+    <t>31GW</t>
+  </si>
+  <si>
+    <t>540d xDrive Touring</t>
+  </si>
+  <si>
+    <t>41GV</t>
+  </si>
+  <si>
+    <t>550e xDrive Touring</t>
+  </si>
+  <si>
+    <t>61HH</t>
+  </si>
+  <si>
+    <t>i5 M60 xDrive Touring</t>
+  </si>
+  <si>
+    <t>71HH</t>
+  </si>
+  <si>
+    <t>i5 eDrive40 Touring</t>
+  </si>
+  <si>
+    <t>51HH</t>
+  </si>
+  <si>
+    <t>i5 xDrive40 Touring</t>
+  </si>
+  <si>
+    <t>81FK</t>
+  </si>
+  <si>
+    <t>G90</t>
+  </si>
+  <si>
+    <t>M5 Sedan</t>
+  </si>
+  <si>
+    <t>81GV</t>
+  </si>
+  <si>
+    <t>G99</t>
+  </si>
+  <si>
+    <t>M5 Touring</t>
+  </si>
+  <si>
+    <t>21EJ</t>
+  </si>
+  <si>
+    <t>G70</t>
+  </si>
+  <si>
+    <t>Seria 7 / i7</t>
+  </si>
+  <si>
+    <t>740d xDrive Limuzyna</t>
+  </si>
+  <si>
+    <t>41EH</t>
+  </si>
+  <si>
+    <t>750e xDrive Limmuzyna</t>
+  </si>
+  <si>
+    <t>51EH</t>
+  </si>
+  <si>
+    <t>M760e xDrive Limuzyna</t>
+  </si>
+  <si>
+    <t>81EH</t>
+  </si>
+  <si>
+    <t>i7 M70 xDrive Limuzyna</t>
+  </si>
+  <si>
+    <t>41EJ</t>
+  </si>
+  <si>
+    <t>i7 eDrive50 Limuzyna</t>
+  </si>
+  <si>
+    <t>51EJ</t>
+  </si>
+  <si>
+    <t>i7 xDrive60 Limuzyna</t>
+  </si>
+  <si>
+    <t>11EF</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>X1 / iX1</t>
+  </si>
+  <si>
+    <t>SUV/Crossover</t>
+  </si>
+  <si>
+    <t>X1 M35i xDrive</t>
+  </si>
+  <si>
+    <t>11EG</t>
+  </si>
+  <si>
+    <t>X1 sDrive18d</t>
+  </si>
+  <si>
+    <t>11EE</t>
+  </si>
+  <si>
+    <t>X1 sDrive18i</t>
+  </si>
+  <si>
+    <t>31EG</t>
+  </si>
+  <si>
+    <t>X1 sDrive20d</t>
+  </si>
+  <si>
+    <t>31EE</t>
+  </si>
+  <si>
+    <t>X1 sDrive20i</t>
+  </si>
+  <si>
+    <t>41EG</t>
+  </si>
+  <si>
+    <t>X1 xDrive20d</t>
+  </si>
+  <si>
+    <t>51EG</t>
+  </si>
+  <si>
+    <t>X1 xDrive23d</t>
+  </si>
+  <si>
+    <t>61EE</t>
+  </si>
+  <si>
+    <t>X1 xDrive23i</t>
+  </si>
+  <si>
+    <t>21EF</t>
+  </si>
+  <si>
+    <t>X1 xDrive25e</t>
+  </si>
+  <si>
+    <t>31EF</t>
+  </si>
+  <si>
+    <t>X1 xDrive30e</t>
+  </si>
+  <si>
+    <t>71EG</t>
+  </si>
+  <si>
+    <t>iX1 eDrive20</t>
+  </si>
+  <si>
+    <t>61EF</t>
+  </si>
+  <si>
+    <t>iX1 xDrive30</t>
+  </si>
+  <si>
+    <t>81GM</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>X2 / iX2</t>
+  </si>
+  <si>
+    <t>X2 M35i xDrive</t>
+  </si>
+  <si>
+    <t>31GN</t>
+  </si>
+  <si>
+    <t>X2 sDrive18d</t>
+  </si>
+  <si>
+    <t>41GN</t>
+  </si>
+  <si>
+    <t>X2 sDrive20d</t>
+  </si>
+  <si>
+    <t>21GM</t>
+  </si>
+  <si>
+    <t>X2 sDrive20i</t>
+  </si>
+  <si>
+    <t>51GM</t>
+  </si>
+  <si>
+    <t>X2 xDrive20d</t>
+  </si>
+  <si>
+    <t>iX2 eDrive20</t>
+  </si>
+  <si>
+    <t>71GM</t>
+  </si>
+  <si>
+    <t>iX2 xDrive30</t>
+  </si>
+  <si>
+    <t>31GP</t>
+  </si>
+  <si>
+    <t>G45</t>
+  </si>
+  <si>
+    <t>X3 / iX3</t>
+  </si>
+  <si>
+    <t>X3 20 xDrive</t>
+  </si>
+  <si>
+    <t>35GP</t>
+  </si>
+  <si>
+    <t>11GR</t>
+  </si>
+  <si>
+    <t>X3 20d xDrive</t>
+  </si>
+  <si>
+    <t>15GR</t>
+  </si>
+  <si>
+    <t>65GP</t>
+  </si>
+  <si>
+    <t>X3 30e xDrive</t>
+  </si>
+  <si>
+    <t>25GR</t>
+  </si>
+  <si>
+    <t>X3 40d xDrive</t>
+  </si>
+  <si>
+    <t>71GP</t>
+  </si>
+  <si>
+    <t>X3 M50 xDrive</t>
+  </si>
+  <si>
+    <t>31EU</t>
+  </si>
+  <si>
+    <t>G05</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X5 M60i xDrive</t>
+  </si>
+  <si>
+    <t>11EV</t>
+  </si>
+  <si>
+    <t>X5 xDrive30d</t>
+  </si>
+  <si>
+    <t>21EV</t>
+  </si>
+  <si>
+    <t>X5 xDrive40d</t>
+  </si>
+  <si>
+    <t>21EU</t>
+  </si>
+  <si>
+    <t>X5 xDrive40i</t>
+  </si>
+  <si>
+    <t>41EU</t>
+  </si>
+  <si>
+    <t>X5 xDrive50e</t>
+  </si>
+  <si>
+    <t>11ET</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>X5 M Competition</t>
+  </si>
+  <si>
+    <t>41EX</t>
+  </si>
+  <si>
+    <t>G06</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X6 M60i xDrive</t>
+  </si>
+  <si>
+    <t>11EY</t>
+  </si>
+  <si>
+    <t>X6 xDrive30d</t>
+  </si>
+  <si>
+    <t>21EY</t>
+  </si>
+  <si>
+    <t>X6 xDrive40d</t>
+  </si>
+  <si>
+    <t>31EX</t>
+  </si>
+  <si>
+    <t>X6 xDrive40i</t>
+  </si>
+  <si>
+    <t>21ET</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>X6 M Competition</t>
+  </si>
+  <si>
+    <t>31EM</t>
+  </si>
+  <si>
+    <t>G07</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X7 M60i xDrive</t>
+  </si>
+  <si>
+    <t>21EN</t>
+  </si>
+  <si>
+    <t>X7 xDrive40d</t>
+  </si>
+  <si>
+    <t>21EM</t>
+  </si>
+  <si>
+    <t>X7 xDrive40i</t>
+  </si>
+  <si>
+    <t>11CS</t>
+  </si>
+  <si>
+    <t>G09</t>
+  </si>
+  <si>
+    <t>XM 50e</t>
+  </si>
+  <si>
+    <t>31CS</t>
+  </si>
+  <si>
+    <t>XM Label</t>
+  </si>
+  <si>
+    <t>31HR</t>
+  </si>
+  <si>
+    <t>NA5</t>
+  </si>
+  <si>
+    <t>iX3 50 xDrive</t>
+  </si>
+  <si>
+    <t>HF51</t>
+  </si>
+  <si>
+    <t>G29</t>
+  </si>
+  <si>
+    <t>Seria Z</t>
+  </si>
+  <si>
+    <t>Z4 M40i</t>
+  </si>
+  <si>
+    <t>HF11</t>
+  </si>
+  <si>
+    <t>Z4 sDrive20i</t>
+  </si>
+  <si>
+    <t>HF31</t>
+  </si>
+  <si>
+    <t>Z4 sDrive30i</t>
+  </si>
+  <si>
+    <t>61CF</t>
+  </si>
+  <si>
+    <t>i20</t>
+  </si>
+  <si>
+    <t>iX</t>
+  </si>
+  <si>
+    <t>iX M70 xDrive</t>
+  </si>
+  <si>
+    <t>41CF</t>
+  </si>
+  <si>
+    <t>iX xDrive45</t>
+  </si>
+  <si>
+    <t>51CF</t>
+  </si>
+  <si>
+    <t>iX xDrive60</t>
   </si>
 </sst>
 </file>
@@ -681,7 +1362,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -738,18 +1419,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1800,7 +2469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:L77"/>
+  <dimension ref="A2:L171"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -3077,7 +3746,7 @@
         <v>96</v>
       </c>
       <c r="F36" t="s" s="15">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G36" s="16">
         <v>530</v>
@@ -3101,19 +3770,19 @@
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" t="s" s="13">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F37" t="s" s="15">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G37" s="16">
         <v>150</v>
@@ -3137,19 +3806,19 @@
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" t="s" s="13">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F38" t="s" s="15">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G38" s="16">
         <v>156</v>
@@ -3173,19 +3842,19 @@
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" t="s" s="13">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F39" t="s" s="15">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G39" s="16">
         <v>156</v>
@@ -3209,19 +3878,19 @@
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="12"/>
       <c r="B40" t="s" s="13">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F40" t="s" s="15">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G40" s="16">
         <v>190</v>
@@ -3245,19 +3914,19 @@
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" t="s" s="13">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F41" t="s" s="15">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G41" s="16">
         <v>190</v>
@@ -3281,19 +3950,19 @@
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" t="s" s="13">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F42" t="s" s="15">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G42" s="16">
         <v>190</v>
@@ -3317,19 +3986,19 @@
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" t="s" s="13">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F43" t="s" s="15">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G43" s="16">
         <v>184</v>
@@ -3353,19 +4022,19 @@
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="12"/>
       <c r="B44" t="s" s="13">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F44" t="s" s="15">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G44" s="16">
         <v>184</v>
@@ -3389,19 +4058,19 @@
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" t="s" s="13">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F45" t="s" s="15">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G45" s="16">
         <v>184</v>
@@ -3425,19 +4094,19 @@
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" t="s" s="13">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F46" t="s" s="15">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G46" s="16">
         <v>286</v>
@@ -3461,19 +4130,19 @@
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" t="s" s="13">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F47" t="s" s="15">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G47" s="16">
         <v>286</v>
@@ -3497,19 +4166,19 @@
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" t="s" s="13">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F48" t="s" s="15">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G48" s="16">
         <v>292</v>
@@ -3533,19 +4202,19 @@
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="12"/>
       <c r="B49" t="s" s="13">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F49" t="s" s="15">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G49" s="16">
         <v>292</v>
@@ -3569,19 +4238,19 @@
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" s="12"/>
       <c r="B50" t="s" s="13">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F50" t="s" s="15">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G50" s="16">
         <v>292</v>
@@ -3605,19 +4274,19 @@
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" s="12"/>
       <c r="B51" t="s" s="13">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F51" t="s" s="15">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G51" s="16">
         <v>292</v>
@@ -3641,19 +4310,19 @@
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" s="12"/>
       <c r="B52" t="s" s="13">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F52" t="s" s="15">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G52" s="16">
         <v>245</v>
@@ -3677,19 +4346,19 @@
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" t="s" s="13">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F53" t="s" s="15">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G53" s="16">
         <v>245</v>
@@ -3713,19 +4382,19 @@
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" t="s" s="13">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F54" t="s" s="15">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G54" s="16">
         <v>340</v>
@@ -3749,19 +4418,19 @@
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" t="s" s="13">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F55" t="s" s="15">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G55" s="16">
         <v>340</v>
@@ -3785,19 +4454,19 @@
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" t="s" s="13">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F56" t="s" s="15">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G56" s="16">
         <v>392</v>
@@ -3821,19 +4490,19 @@
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" s="12"/>
       <c r="B57" t="s" s="13">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s" s="14">
         <v>53</v>
       </c>
       <c r="F57" t="s" s="15">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G57" s="16">
         <v>392</v>
@@ -3857,19 +4526,19 @@
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" t="s" s="13">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s" s="14">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D58" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s" s="14">
         <v>96</v>
       </c>
       <c r="F58" t="s" s="15">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G58" s="16">
         <v>150</v>
@@ -3893,19 +4562,19 @@
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" s="12"/>
       <c r="B59" t="s" s="13">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s" s="14">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s" s="14">
         <v>96</v>
       </c>
       <c r="F59" t="s" s="15">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G59" s="16">
         <v>156</v>
@@ -3929,19 +4598,19 @@
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" t="s" s="13">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s" s="14">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D60" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s" s="14">
         <v>96</v>
       </c>
       <c r="F60" t="s" s="15">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G60" s="16">
         <v>190</v>
@@ -3965,19 +4634,19 @@
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" s="12"/>
       <c r="B61" t="s" s="13">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s" s="14">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E61" t="s" s="14">
         <v>96</v>
       </c>
       <c r="F61" t="s" s="15">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G61" s="16">
         <v>190</v>
@@ -4001,19 +4670,19 @@
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" s="12"/>
       <c r="B62" t="s" s="13">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s" s="14">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D62" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E62" t="s" s="14">
         <v>96</v>
       </c>
       <c r="F62" t="s" s="15">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G62" s="16">
         <v>184</v>
@@ -4037,19 +4706,19 @@
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" t="s" s="13">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s" s="14">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D63" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E63" t="s" s="14">
         <v>96</v>
       </c>
       <c r="F63" t="s" s="15">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G63" s="16">
         <v>286</v>
@@ -4073,19 +4742,19 @@
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" t="s" s="13">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s" s="14">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D64" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E64" t="s" s="14">
         <v>96</v>
       </c>
       <c r="F64" t="s" s="15">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G64" s="16">
         <v>292</v>
@@ -4109,19 +4778,19 @@
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" s="12"/>
       <c r="B65" t="s" s="13">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s" s="14">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E65" t="s" s="14">
         <v>96</v>
       </c>
       <c r="F65" t="s" s="15">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G65" s="16">
         <v>292</v>
@@ -4145,19 +4814,19 @@
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" t="s" s="13">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C66" t="s" s="14">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D66" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s" s="14">
         <v>96</v>
       </c>
       <c r="F66" t="s" s="15">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G66" s="16">
         <v>245</v>
@@ -4181,19 +4850,19 @@
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" s="12"/>
       <c r="B67" t="s" s="13">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s" s="14">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E67" t="s" s="14">
         <v>96</v>
       </c>
       <c r="F67" t="s" s="15">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G67" s="16">
         <v>340</v>
@@ -4217,19 +4886,19 @@
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" t="s" s="13">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s" s="14">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68" t="s" s="14">
         <v>96</v>
       </c>
       <c r="F68" t="s" s="15">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G68" s="16">
         <v>392</v>
@@ -4253,19 +4922,19 @@
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" t="s" s="13">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s" s="14">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D69" t="s" s="14">
         <v>83</v>
       </c>
       <c r="E69" t="s" s="14">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F69" t="s" s="15">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G69" s="16">
         <v>530</v>
@@ -4289,10 +4958,10 @@
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" t="s" s="13">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s" s="14">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s" s="14">
         <v>83</v>
@@ -4301,7 +4970,7 @@
         <v>57</v>
       </c>
       <c r="F70" t="s" s="15">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G70" s="16">
         <v>510</v>
@@ -4325,10 +4994,10 @@
     <row r="71" ht="20.05" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" t="s" s="13">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s" s="14">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s" s="14">
         <v>83</v>
@@ -4337,7 +5006,7 @@
         <v>57</v>
       </c>
       <c r="F71" t="s" s="15">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G71" s="16">
         <v>530</v>
@@ -4361,10 +5030,10 @@
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" t="s" s="13">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s" s="14">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s" s="14">
         <v>83</v>
@@ -4373,7 +5042,7 @@
         <v>57</v>
       </c>
       <c r="F72" t="s" s="15">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G72" s="16">
         <v>480</v>
@@ -4396,73 +5065,3567 @@
     </row>
     <row r="73" ht="20.05" customHeight="1">
       <c r="A73" s="12"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
+      <c r="B73" t="s" s="13">
+        <v>169</v>
+      </c>
+      <c r="C73" t="s" s="14">
+        <v>170</v>
+      </c>
+      <c r="D73" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E73" t="s" s="14">
+        <v>160</v>
+      </c>
+      <c r="F73" t="s" s="15">
+        <v>172</v>
+      </c>
+      <c r="G73" s="16">
+        <v>190</v>
+      </c>
+      <c r="H73" s="16">
+        <v>7.6</v>
+      </c>
+      <c r="I73" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K73" s="16">
+        <v>236</v>
+      </c>
+      <c r="L73" s="16">
+        <v>385</v>
+      </c>
     </row>
     <row r="74" ht="20.05" customHeight="1">
       <c r="A74" s="12"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
+      <c r="B74" t="s" s="13">
+        <v>173</v>
+      </c>
+      <c r="C74" t="s" s="14">
+        <v>170</v>
+      </c>
+      <c r="D74" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E74" t="s" s="14">
+        <v>160</v>
+      </c>
+      <c r="F74" t="s" s="15">
+        <v>174</v>
+      </c>
+      <c r="G74" s="16">
+        <v>184</v>
+      </c>
+      <c r="H74" s="16">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I74" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K74" s="16">
+        <v>236</v>
+      </c>
+      <c r="L74" s="16">
+        <v>385</v>
+      </c>
     </row>
     <row r="75" ht="20.05" customHeight="1">
       <c r="A75" s="12"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
+      <c r="B75" t="s" s="13">
+        <v>175</v>
+      </c>
+      <c r="C75" t="s" s="14">
+        <v>170</v>
+      </c>
+      <c r="D75" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E75" t="s" s="14">
+        <v>160</v>
+      </c>
+      <c r="F75" t="s" s="15">
+        <v>176</v>
+      </c>
+      <c r="G75" s="16">
+        <v>286</v>
+      </c>
+      <c r="H75" s="16">
+        <v>5.8</v>
+      </c>
+      <c r="I75" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K75" s="16">
+        <v>250</v>
+      </c>
+      <c r="L75" s="16">
+        <v>385</v>
+      </c>
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" s="12"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
+      <c r="B76" t="s" s="13">
+        <v>177</v>
+      </c>
+      <c r="C76" t="s" s="14">
+        <v>170</v>
+      </c>
+      <c r="D76" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E76" t="s" s="14">
+        <v>160</v>
+      </c>
+      <c r="F76" t="s" s="15">
+        <v>178</v>
+      </c>
+      <c r="G76" s="16">
+        <v>245</v>
+      </c>
+      <c r="H76" s="16">
+        <v>6.3</v>
+      </c>
+      <c r="I76" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K76" s="16">
+        <v>250</v>
+      </c>
+      <c r="L76" s="16">
+        <v>385</v>
+      </c>
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" s="12"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
+      <c r="B77" t="s" s="13">
+        <v>179</v>
+      </c>
+      <c r="C77" t="s" s="14">
+        <v>170</v>
+      </c>
+      <c r="D77" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E77" t="s" s="14">
+        <v>160</v>
+      </c>
+      <c r="F77" t="s" s="15">
+        <v>180</v>
+      </c>
+      <c r="G77" s="16">
+        <v>340</v>
+      </c>
+      <c r="H77" s="16">
+        <v>5</v>
+      </c>
+      <c r="I77" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K77" s="16">
+        <v>250</v>
+      </c>
+      <c r="L77" s="16">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="78" ht="20.05" customHeight="1">
+      <c r="A78" s="12"/>
+      <c r="B78" t="s" s="13">
+        <v>181</v>
+      </c>
+      <c r="C78" t="s" s="14">
+        <v>170</v>
+      </c>
+      <c r="D78" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E78" t="s" s="14">
+        <v>160</v>
+      </c>
+      <c r="F78" t="s" s="15">
+        <v>182</v>
+      </c>
+      <c r="G78" s="16">
+        <v>392</v>
+      </c>
+      <c r="H78" s="16">
+        <v>4.8</v>
+      </c>
+      <c r="I78" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K78" s="16">
+        <v>250</v>
+      </c>
+      <c r="L78" s="16">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" ht="20.05" customHeight="1">
+      <c r="A79" s="12"/>
+      <c r="B79" t="s" s="13">
+        <v>183</v>
+      </c>
+      <c r="C79" t="s" s="14">
+        <v>184</v>
+      </c>
+      <c r="D79" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E79" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F79" t="s" s="15">
+        <v>185</v>
+      </c>
+      <c r="G79" s="16">
+        <v>190</v>
+      </c>
+      <c r="H79" s="16">
+        <v>7.1</v>
+      </c>
+      <c r="I79" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K79" s="16">
+        <v>240</v>
+      </c>
+      <c r="L79" s="16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="80" ht="20.05" customHeight="1">
+      <c r="A80" s="12"/>
+      <c r="B80" t="s" s="13">
+        <v>186</v>
+      </c>
+      <c r="C80" t="s" s="14">
+        <v>184</v>
+      </c>
+      <c r="D80" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E80" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F80" t="s" s="15">
+        <v>187</v>
+      </c>
+      <c r="G80" s="16">
+        <v>190</v>
+      </c>
+      <c r="H80" s="16">
+        <v>7.4</v>
+      </c>
+      <c r="I80" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K80" s="16">
+        <v>238</v>
+      </c>
+      <c r="L80" s="16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" ht="20.05" customHeight="1">
+      <c r="A81" s="12"/>
+      <c r="B81" t="s" s="13">
+        <v>188</v>
+      </c>
+      <c r="C81" t="s" s="14">
+        <v>184</v>
+      </c>
+      <c r="D81" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E81" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F81" t="s" s="15">
+        <v>189</v>
+      </c>
+      <c r="G81" s="16">
+        <v>184</v>
+      </c>
+      <c r="H81" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="I81" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K81" s="16">
+        <v>240</v>
+      </c>
+      <c r="L81" s="16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" ht="20.05" customHeight="1">
+      <c r="A82" s="12"/>
+      <c r="B82" t="s" s="13">
+        <v>190</v>
+      </c>
+      <c r="C82" t="s" s="14">
+        <v>184</v>
+      </c>
+      <c r="D82" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E82" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F82" t="s" s="15">
+        <v>191</v>
+      </c>
+      <c r="G82" s="16">
+        <v>286</v>
+      </c>
+      <c r="H82" s="16">
+        <v>5.1</v>
+      </c>
+      <c r="I82" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K82" s="16">
+        <v>250</v>
+      </c>
+      <c r="L82" s="16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83" ht="20.05" customHeight="1">
+      <c r="A83" s="12"/>
+      <c r="B83" t="s" s="13">
+        <v>192</v>
+      </c>
+      <c r="C83" t="s" s="14">
+        <v>184</v>
+      </c>
+      <c r="D83" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E83" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F83" t="s" s="15">
+        <v>193</v>
+      </c>
+      <c r="G83" s="16">
+        <v>245</v>
+      </c>
+      <c r="H83" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="I83" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K83" s="16">
+        <v>250</v>
+      </c>
+      <c r="L83" s="16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="84" ht="20.05" customHeight="1">
+      <c r="A84" s="12"/>
+      <c r="B84" t="s" s="13">
+        <v>194</v>
+      </c>
+      <c r="C84" t="s" s="14">
+        <v>184</v>
+      </c>
+      <c r="D84" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E84" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F84" t="s" s="15">
+        <v>195</v>
+      </c>
+      <c r="G84" s="16">
+        <v>340</v>
+      </c>
+      <c r="H84" s="16">
+        <v>4.6</v>
+      </c>
+      <c r="I84" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K84" s="16">
+        <v>250</v>
+      </c>
+      <c r="L84" s="16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" ht="20.05" customHeight="1">
+      <c r="A85" s="12"/>
+      <c r="B85" t="s" s="13">
+        <v>196</v>
+      </c>
+      <c r="C85" t="s" s="14">
+        <v>184</v>
+      </c>
+      <c r="D85" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E85" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F85" t="s" s="15">
+        <v>197</v>
+      </c>
+      <c r="G85" s="16">
+        <v>392</v>
+      </c>
+      <c r="H85" s="16">
+        <v>4.4</v>
+      </c>
+      <c r="I85" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K85" s="16">
+        <v>250</v>
+      </c>
+      <c r="L85" s="16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="86" ht="20.05" customHeight="1">
+      <c r="A86" s="12"/>
+      <c r="B86" t="s" s="13">
+        <v>198</v>
+      </c>
+      <c r="C86" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="D86" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E86" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F86" t="s" s="15">
+        <v>200</v>
+      </c>
+      <c r="G86" s="16">
+        <v>190</v>
+      </c>
+      <c r="H86" s="16">
+        <v>7.3</v>
+      </c>
+      <c r="I86" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K86" s="16">
+        <v>235</v>
+      </c>
+      <c r="L86" s="16">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="87" ht="20.05" customHeight="1">
+      <c r="A87" s="12"/>
+      <c r="B87" t="s" s="13">
+        <v>201</v>
+      </c>
+      <c r="C87" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="D87" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E87" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F87" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="G87" s="16">
+        <v>190</v>
+      </c>
+      <c r="H87" s="16">
+        <v>7.6</v>
+      </c>
+      <c r="I87" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K87" s="16">
+        <v>233</v>
+      </c>
+      <c r="L87" s="16">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="88" ht="20.05" customHeight="1">
+      <c r="A88" s="12"/>
+      <c r="B88" t="s" s="13">
+        <v>203</v>
+      </c>
+      <c r="C88" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="D88" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E88" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F88" t="s" s="15">
+        <v>204</v>
+      </c>
+      <c r="G88" s="16">
+        <v>184</v>
+      </c>
+      <c r="H88" s="16">
+        <v>7.9</v>
+      </c>
+      <c r="I88" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K88" s="16">
+        <v>235</v>
+      </c>
+      <c r="L88" s="16">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="89" ht="20.05" customHeight="1">
+      <c r="A89" s="12"/>
+      <c r="B89" t="s" s="13">
+        <v>205</v>
+      </c>
+      <c r="C89" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="D89" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E89" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F89" t="s" s="15">
+        <v>206</v>
+      </c>
+      <c r="G89" s="16">
+        <v>286</v>
+      </c>
+      <c r="H89" s="16">
+        <v>5.3</v>
+      </c>
+      <c r="I89" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K89" s="16">
+        <v>250</v>
+      </c>
+      <c r="L89" s="16">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="90" ht="20.05" customHeight="1">
+      <c r="A90" s="12"/>
+      <c r="B90" t="s" s="13">
+        <v>207</v>
+      </c>
+      <c r="C90" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="D90" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E90" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F90" t="s" s="15">
+        <v>208</v>
+      </c>
+      <c r="G90" s="16">
+        <v>245</v>
+      </c>
+      <c r="H90" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="I90" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K90" s="16">
+        <v>250</v>
+      </c>
+      <c r="L90" s="16">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="91" ht="20.05" customHeight="1">
+      <c r="A91" s="12"/>
+      <c r="B91" t="s" s="13">
+        <v>209</v>
+      </c>
+      <c r="C91" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="D91" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E91" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F91" t="s" s="15">
+        <v>210</v>
+      </c>
+      <c r="G91" s="16">
+        <v>392</v>
+      </c>
+      <c r="H91" s="16">
+        <v>4.6</v>
+      </c>
+      <c r="I91" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K91" s="16">
+        <v>250</v>
+      </c>
+      <c r="L91" s="16">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="92" ht="20.05" customHeight="1">
+      <c r="A92" s="12"/>
+      <c r="B92" t="s" s="13">
+        <v>211</v>
+      </c>
+      <c r="C92" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="D92" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E92" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F92" t="s" s="15">
+        <v>212</v>
+      </c>
+      <c r="G92" s="16">
+        <v>601</v>
+      </c>
+      <c r="H92" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="I92" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J92" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K92" s="16">
+        <v>225</v>
+      </c>
+      <c r="L92" s="16">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="93" ht="20.05" customHeight="1">
+      <c r="A93" s="12"/>
+      <c r="B93" t="s" s="13">
+        <v>214</v>
+      </c>
+      <c r="C93" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="D93" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E93" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F93" t="s" s="15">
+        <v>215</v>
+      </c>
+      <c r="G93" s="16">
+        <v>286</v>
+      </c>
+      <c r="H93" s="16">
+        <v>6</v>
+      </c>
+      <c r="I93" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J93" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K93" s="16">
+        <v>190</v>
+      </c>
+      <c r="L93" s="16">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="94" ht="20.05" customHeight="1">
+      <c r="A94" s="12"/>
+      <c r="B94" t="s" s="13">
+        <v>216</v>
+      </c>
+      <c r="C94" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="D94" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E94" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F94" t="s" s="15">
+        <v>217</v>
+      </c>
+      <c r="G94" s="16">
+        <v>340</v>
+      </c>
+      <c r="H94" s="16">
+        <v>5.6</v>
+      </c>
+      <c r="I94" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J94" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K94" s="16">
+        <v>190</v>
+      </c>
+      <c r="L94" s="16">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="95" ht="20.05" customHeight="1">
+      <c r="A95" s="12"/>
+      <c r="B95" t="s" s="13">
+        <v>218</v>
+      </c>
+      <c r="C95" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="D95" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E95" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F95" t="s" s="15">
+        <v>219</v>
+      </c>
+      <c r="G95" s="16">
+        <v>401</v>
+      </c>
+      <c r="H95" s="16">
+        <v>5.1</v>
+      </c>
+      <c r="I95" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J95" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K95" s="16">
+        <v>200</v>
+      </c>
+      <c r="L95" s="16">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="96" ht="20.05" customHeight="1">
+      <c r="A96" s="12"/>
+      <c r="B96" t="s" s="13">
+        <v>220</v>
+      </c>
+      <c r="C96" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="D96" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E96" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F96" t="s" s="15">
+        <v>221</v>
+      </c>
+      <c r="G96" s="16">
+        <v>197</v>
+      </c>
+      <c r="H96" s="16">
+        <v>7.3</v>
+      </c>
+      <c r="I96" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K96" s="16">
+        <v>233</v>
+      </c>
+      <c r="L96" s="16">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="97" ht="20.05" customHeight="1">
+      <c r="A97" s="12"/>
+      <c r="B97" t="s" s="13">
+        <v>222</v>
+      </c>
+      <c r="C97" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="D97" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E97" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F97" t="s" s="15">
+        <v>223</v>
+      </c>
+      <c r="G97" s="16">
+        <v>208</v>
+      </c>
+      <c r="H97" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="I97" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K97" s="16">
+        <v>230</v>
+      </c>
+      <c r="L97" s="16">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="98" ht="20.05" customHeight="1">
+      <c r="A98" s="12"/>
+      <c r="B98" t="s" s="13">
+        <v>224</v>
+      </c>
+      <c r="C98" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="D98" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E98" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F98" t="s" s="15">
+        <v>225</v>
+      </c>
+      <c r="G98" s="16">
+        <v>299</v>
+      </c>
+      <c r="H98" s="16">
+        <v>6.3</v>
+      </c>
+      <c r="I98" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J98" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K98" s="16">
+        <v>230</v>
+      </c>
+      <c r="L98" s="16">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="99" ht="20.05" customHeight="1">
+      <c r="A99" s="12"/>
+      <c r="B99" t="s" s="13">
+        <v>226</v>
+      </c>
+      <c r="C99" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="D99" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E99" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F99" t="s" s="15">
+        <v>227</v>
+      </c>
+      <c r="G99" s="16">
+        <v>299</v>
+      </c>
+      <c r="H99" s="16">
+        <v>6.3</v>
+      </c>
+      <c r="I99" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J99" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K99" s="16">
+        <v>225</v>
+      </c>
+      <c r="L99" s="16">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="100" ht="20.05" customHeight="1">
+      <c r="A100" s="12"/>
+      <c r="B100" t="s" s="13">
+        <v>228</v>
+      </c>
+      <c r="C100" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="D100" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E100" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F100" t="s" s="15">
+        <v>229</v>
+      </c>
+      <c r="G100" s="16">
+        <v>303</v>
+      </c>
+      <c r="H100" s="16">
+        <v>5.2</v>
+      </c>
+      <c r="I100" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J100" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K100" s="16">
+        <v>250</v>
+      </c>
+      <c r="L100" s="16">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="101" ht="20.05" customHeight="1">
+      <c r="A101" s="12"/>
+      <c r="B101" t="s" s="13">
+        <v>230</v>
+      </c>
+      <c r="C101" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="D101" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E101" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F101" t="s" s="15">
+        <v>231</v>
+      </c>
+      <c r="G101" s="16">
+        <v>489</v>
+      </c>
+      <c r="H101" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="I101" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J101" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K101" s="16">
+        <v>250</v>
+      </c>
+      <c r="L101" s="16">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="102" ht="20.05" customHeight="1">
+      <c r="A102" s="12"/>
+      <c r="B102" t="s" s="13">
+        <v>232</v>
+      </c>
+      <c r="C102" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="D102" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E102" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F102" t="s" s="15">
+        <v>233</v>
+      </c>
+      <c r="G102" s="16">
+        <v>601</v>
+      </c>
+      <c r="H102" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="I102" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J102" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K102" s="16">
+        <v>230</v>
+      </c>
+      <c r="L102" s="16">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="103" ht="20.05" customHeight="1">
+      <c r="A103" s="12"/>
+      <c r="B103" t="s" s="13">
+        <v>234</v>
+      </c>
+      <c r="C103" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="D103" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E103" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F103" t="s" s="15">
+        <v>235</v>
+      </c>
+      <c r="G103" s="16">
+        <v>340</v>
+      </c>
+      <c r="H103" s="16">
+        <v>6</v>
+      </c>
+      <c r="I103" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J103" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K103" s="16">
+        <v>193</v>
+      </c>
+      <c r="L103" s="16">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="104" ht="20.05" customHeight="1">
+      <c r="A104" s="12"/>
+      <c r="B104" t="s" s="13">
+        <v>236</v>
+      </c>
+      <c r="C104" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="D104" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E104" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F104" t="s" s="15">
+        <v>237</v>
+      </c>
+      <c r="G104" s="16">
+        <v>394</v>
+      </c>
+      <c r="H104" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="I104" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J104" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K104" s="16">
+        <v>215</v>
+      </c>
+      <c r="L104" s="16">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="105" ht="20.05" customHeight="1">
+      <c r="A105" s="12"/>
+      <c r="B105" t="s" s="13">
+        <v>238</v>
+      </c>
+      <c r="C105" t="s" s="14">
+        <v>239</v>
+      </c>
+      <c r="D105" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E105" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F105" t="s" s="15">
+        <v>240</v>
+      </c>
+      <c r="G105" s="16">
+        <v>197</v>
+      </c>
+      <c r="H105" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="I105" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J105" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K105" s="16">
+        <v>220</v>
+      </c>
+      <c r="L105" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="106" ht="20.05" customHeight="1">
+      <c r="A106" s="12"/>
+      <c r="B106" t="s" s="13">
+        <v>241</v>
+      </c>
+      <c r="C106" t="s" s="14">
+        <v>239</v>
+      </c>
+      <c r="D106" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E106" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F106" t="s" s="15">
+        <v>242</v>
+      </c>
+      <c r="G106" s="16">
+        <v>197</v>
+      </c>
+      <c r="H106" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="I106" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J106" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K106" s="16">
+        <v>218</v>
+      </c>
+      <c r="L106" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="107" ht="20.05" customHeight="1">
+      <c r="A107" s="12"/>
+      <c r="B107" t="s" s="13">
+        <v>243</v>
+      </c>
+      <c r="C107" t="s" s="14">
+        <v>239</v>
+      </c>
+      <c r="D107" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E107" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F107" t="s" s="15">
+        <v>244</v>
+      </c>
+      <c r="G107" s="16">
+        <v>208</v>
+      </c>
+      <c r="H107" s="16">
+        <v>7.8</v>
+      </c>
+      <c r="I107" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K107" s="16">
+        <v>222</v>
+      </c>
+      <c r="L107" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="108" ht="20.05" customHeight="1">
+      <c r="A108" s="12"/>
+      <c r="B108" t="s" s="13">
+        <v>245</v>
+      </c>
+      <c r="C108" t="s" s="14">
+        <v>239</v>
+      </c>
+      <c r="D108" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E108" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F108" t="s" s="15">
+        <v>246</v>
+      </c>
+      <c r="G108" s="16">
+        <v>299</v>
+      </c>
+      <c r="H108" s="16">
+        <v>6.4</v>
+      </c>
+      <c r="I108" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J108" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K108" s="16">
+        <v>220</v>
+      </c>
+      <c r="L108" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="109" ht="20.05" customHeight="1">
+      <c r="A109" s="12"/>
+      <c r="B109" t="s" s="13">
+        <v>247</v>
+      </c>
+      <c r="C109" t="s" s="14">
+        <v>239</v>
+      </c>
+      <c r="D109" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E109" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F109" t="s" s="15">
+        <v>248</v>
+      </c>
+      <c r="G109" s="16">
+        <v>299</v>
+      </c>
+      <c r="H109" s="16">
+        <v>6.4</v>
+      </c>
+      <c r="I109" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J109" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K109" s="16">
+        <v>218</v>
+      </c>
+      <c r="L109" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="110" ht="20.05" customHeight="1">
+      <c r="A110" s="12"/>
+      <c r="B110" t="s" s="13">
+        <v>249</v>
+      </c>
+      <c r="C110" t="s" s="14">
+        <v>239</v>
+      </c>
+      <c r="D110" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E110" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F110" t="s" s="15">
+        <v>250</v>
+      </c>
+      <c r="G110" s="16">
+        <v>303</v>
+      </c>
+      <c r="H110" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="I110" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J110" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K110" s="16">
+        <v>250</v>
+      </c>
+      <c r="L110" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="111" ht="20.05" customHeight="1">
+      <c r="A111" s="12"/>
+      <c r="B111" t="s" s="13">
+        <v>251</v>
+      </c>
+      <c r="C111" t="s" s="14">
+        <v>239</v>
+      </c>
+      <c r="D111" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E111" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F111" t="s" s="15">
+        <v>252</v>
+      </c>
+      <c r="G111" s="16">
+        <v>489</v>
+      </c>
+      <c r="H111" s="16">
+        <v>4.4</v>
+      </c>
+      <c r="I111" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J111" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K111" s="16">
+        <v>250</v>
+      </c>
+      <c r="L111" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="112" ht="20.05" customHeight="1">
+      <c r="A112" s="12"/>
+      <c r="B112" t="s" s="13">
+        <v>253</v>
+      </c>
+      <c r="C112" t="s" s="14">
+        <v>239</v>
+      </c>
+      <c r="D112" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E112" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F112" t="s" s="15">
+        <v>254</v>
+      </c>
+      <c r="G112" s="16">
+        <v>601</v>
+      </c>
+      <c r="H112" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="I112" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J112" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K112" s="16">
+        <v>230</v>
+      </c>
+      <c r="L112" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="113" ht="20.05" customHeight="1">
+      <c r="A113" s="12"/>
+      <c r="B113" t="s" s="13">
+        <v>255</v>
+      </c>
+      <c r="C113" t="s" s="14">
+        <v>239</v>
+      </c>
+      <c r="D113" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E113" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F113" t="s" s="15">
+        <v>256</v>
+      </c>
+      <c r="G113" s="16">
+        <v>340</v>
+      </c>
+      <c r="H113" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="I113" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J113" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K113" s="16">
+        <v>193</v>
+      </c>
+      <c r="L113" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="114" ht="20.05" customHeight="1">
+      <c r="A114" s="12"/>
+      <c r="B114" t="s" s="13">
+        <v>257</v>
+      </c>
+      <c r="C114" t="s" s="14">
+        <v>239</v>
+      </c>
+      <c r="D114" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="E114" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F114" t="s" s="15">
+        <v>258</v>
+      </c>
+      <c r="G114" s="16">
+        <v>394</v>
+      </c>
+      <c r="H114" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="I114" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J114" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K114" s="16">
+        <v>215</v>
+      </c>
+      <c r="L114" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="115" ht="20.05" customHeight="1">
+      <c r="A115" s="12"/>
+      <c r="B115" t="s" s="13">
+        <v>259</v>
+      </c>
+      <c r="C115" t="s" s="14">
+        <v>260</v>
+      </c>
+      <c r="D115" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E115" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F115" t="s" s="15">
+        <v>261</v>
+      </c>
+      <c r="G115" s="16">
+        <v>727</v>
+      </c>
+      <c r="H115" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="I115" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J115" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K115" s="16">
+        <v>250</v>
+      </c>
+      <c r="L115" s="16">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="116" ht="20.05" customHeight="1">
+      <c r="A116" s="12"/>
+      <c r="B116" t="s" s="13">
+        <v>262</v>
+      </c>
+      <c r="C116" t="s" s="14">
+        <v>263</v>
+      </c>
+      <c r="D116" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E116" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F116" t="s" s="15">
+        <v>264</v>
+      </c>
+      <c r="G116" s="16">
+        <v>727</v>
+      </c>
+      <c r="H116" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="I116" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J116" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K116" s="16">
+        <v>250</v>
+      </c>
+      <c r="L116" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" ht="20.05" customHeight="1">
+      <c r="A117" s="12"/>
+      <c r="B117" t="s" s="13">
+        <v>265</v>
+      </c>
+      <c r="C117" t="s" s="14">
+        <v>266</v>
+      </c>
+      <c r="D117" t="s" s="14">
+        <v>267</v>
+      </c>
+      <c r="E117" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F117" t="s" s="15">
+        <v>268</v>
+      </c>
+      <c r="G117" s="16">
+        <v>299</v>
+      </c>
+      <c r="H117" s="16">
+        <v>5.8</v>
+      </c>
+      <c r="I117" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J117" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K117" s="16">
+        <v>250</v>
+      </c>
+      <c r="L117" s="16">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="118" ht="20.05" customHeight="1">
+      <c r="A118" s="12"/>
+      <c r="B118" t="s" s="13">
+        <v>269</v>
+      </c>
+      <c r="C118" t="s" s="14">
+        <v>266</v>
+      </c>
+      <c r="D118" t="s" s="14">
+        <v>267</v>
+      </c>
+      <c r="E118" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F118" t="s" s="15">
+        <v>270</v>
+      </c>
+      <c r="G118" s="16">
+        <v>489</v>
+      </c>
+      <c r="H118" s="16">
+        <v>4.8</v>
+      </c>
+      <c r="I118" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J118" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K118" s="16">
+        <v>250</v>
+      </c>
+      <c r="L118" s="16">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="119" ht="20.05" customHeight="1">
+      <c r="A119" s="12"/>
+      <c r="B119" t="s" s="13">
+        <v>271</v>
+      </c>
+      <c r="C119" t="s" s="14">
+        <v>266</v>
+      </c>
+      <c r="D119" t="s" s="14">
+        <v>267</v>
+      </c>
+      <c r="E119" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F119" t="s" s="15">
+        <v>272</v>
+      </c>
+      <c r="G119" s="16">
+        <v>571</v>
+      </c>
+      <c r="H119" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="I119" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J119" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K119" s="16">
+        <v>250</v>
+      </c>
+      <c r="L119" s="16">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="120" ht="20.05" customHeight="1">
+      <c r="A120" s="12"/>
+      <c r="B120" t="s" s="13">
+        <v>273</v>
+      </c>
+      <c r="C120" t="s" s="14">
+        <v>266</v>
+      </c>
+      <c r="D120" t="s" s="14">
+        <v>267</v>
+      </c>
+      <c r="E120" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F120" t="s" s="15">
+        <v>274</v>
+      </c>
+      <c r="G120" s="16">
+        <v>659</v>
+      </c>
+      <c r="H120" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="I120" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J120" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K120" s="16">
+        <v>250</v>
+      </c>
+      <c r="L120" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" ht="20.05" customHeight="1">
+      <c r="A121" s="12"/>
+      <c r="B121" t="s" s="13">
+        <v>275</v>
+      </c>
+      <c r="C121" t="s" s="14">
+        <v>266</v>
+      </c>
+      <c r="D121" t="s" s="14">
+        <v>267</v>
+      </c>
+      <c r="E121" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F121" t="s" s="15">
+        <v>276</v>
+      </c>
+      <c r="G121" s="16">
+        <v>455</v>
+      </c>
+      <c r="H121" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="I121" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J121" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K121" s="16">
+        <v>205</v>
+      </c>
+      <c r="L121" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" ht="20.05" customHeight="1">
+      <c r="A122" s="12"/>
+      <c r="B122" t="s" s="13">
+        <v>277</v>
+      </c>
+      <c r="C122" t="s" s="14">
+        <v>266</v>
+      </c>
+      <c r="D122" t="s" s="14">
+        <v>267</v>
+      </c>
+      <c r="E122" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F122" t="s" s="15">
+        <v>278</v>
+      </c>
+      <c r="G122" s="16">
+        <v>544</v>
+      </c>
+      <c r="H122" s="16">
+        <v>4.7</v>
+      </c>
+      <c r="I122" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J122" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K122" s="16">
+        <v>240</v>
+      </c>
+      <c r="L122" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" ht="20.05" customHeight="1">
+      <c r="A123" s="12"/>
+      <c r="B123" t="s" s="13">
+        <v>279</v>
+      </c>
+      <c r="C123" t="s" s="14">
+        <v>280</v>
+      </c>
+      <c r="D123" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="E123" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F123" t="s" s="15">
+        <v>283</v>
+      </c>
+      <c r="G123" s="16">
+        <v>300</v>
+      </c>
+      <c r="H123" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="I123" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K123" s="16">
+        <v>250</v>
+      </c>
+      <c r="L123" s="16">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="124" ht="20.05" customHeight="1">
+      <c r="A124" s="12"/>
+      <c r="B124" t="s" s="13">
+        <v>284</v>
+      </c>
+      <c r="C124" t="s" s="14">
+        <v>280</v>
+      </c>
+      <c r="D124" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="E124" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F124" t="s" s="15">
+        <v>285</v>
+      </c>
+      <c r="G124" s="16">
+        <v>150</v>
+      </c>
+      <c r="H124" s="16">
+        <v>8.9</v>
+      </c>
+      <c r="I124" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J124" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K124" s="16">
+        <v>210</v>
+      </c>
+      <c r="L124" s="16">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="125" ht="20.05" customHeight="1">
+      <c r="A125" s="12"/>
+      <c r="B125" t="s" s="13">
+        <v>286</v>
+      </c>
+      <c r="C125" t="s" s="14">
+        <v>280</v>
+      </c>
+      <c r="D125" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="E125" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F125" t="s" s="15">
+        <v>287</v>
+      </c>
+      <c r="G125" s="16">
+        <v>136</v>
+      </c>
+      <c r="H125" s="16">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I125" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K125" s="16">
+        <v>208</v>
+      </c>
+      <c r="L125" s="16">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="126" ht="20.05" customHeight="1">
+      <c r="A126" s="12"/>
+      <c r="B126" t="s" s="13">
+        <v>288</v>
+      </c>
+      <c r="C126" t="s" s="14">
+        <v>280</v>
+      </c>
+      <c r="D126" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="E126" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F126" t="s" s="15">
+        <v>289</v>
+      </c>
+      <c r="G126" s="16">
+        <v>163</v>
+      </c>
+      <c r="H126" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="I126" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J126" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K126" s="16">
+        <v>210</v>
+      </c>
+      <c r="L126" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" ht="20.05" customHeight="1">
+      <c r="A127" s="12"/>
+      <c r="B127" t="s" s="13">
+        <v>290</v>
+      </c>
+      <c r="C127" t="s" s="14">
+        <v>280</v>
+      </c>
+      <c r="D127" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="E127" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F127" t="s" s="15">
+        <v>291</v>
+      </c>
+      <c r="G127" s="16">
+        <v>170</v>
+      </c>
+      <c r="H127" s="16">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I127" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K127" s="16">
+        <v>216</v>
+      </c>
+      <c r="L127" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128" ht="20.05" customHeight="1">
+      <c r="A128" s="12"/>
+      <c r="B128" t="s" s="13">
+        <v>292</v>
+      </c>
+      <c r="C128" t="s" s="14">
+        <v>280</v>
+      </c>
+      <c r="D128" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="E128" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F128" t="s" s="15">
+        <v>293</v>
+      </c>
+      <c r="G128" s="16">
+        <v>163</v>
+      </c>
+      <c r="H128" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="I128" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J128" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K128" s="16">
+        <v>210</v>
+      </c>
+      <c r="L128" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" ht="20.05" customHeight="1">
+      <c r="A129" s="12"/>
+      <c r="B129" t="s" s="13">
+        <v>294</v>
+      </c>
+      <c r="C129" t="s" s="14">
+        <v>280</v>
+      </c>
+      <c r="D129" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="E129" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F129" t="s" s="15">
+        <v>295</v>
+      </c>
+      <c r="G129" s="16">
+        <v>211</v>
+      </c>
+      <c r="H129" s="16">
+        <v>7.4</v>
+      </c>
+      <c r="I129" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J129" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K129" s="16">
+        <v>225</v>
+      </c>
+      <c r="L129" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" ht="20.05" customHeight="1">
+      <c r="A130" s="12"/>
+      <c r="B130" t="s" s="13">
+        <v>296</v>
+      </c>
+      <c r="C130" t="s" s="14">
+        <v>280</v>
+      </c>
+      <c r="D130" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="E130" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F130" t="s" s="15">
+        <v>297</v>
+      </c>
+      <c r="G130" s="16">
+        <v>218</v>
+      </c>
+      <c r="H130" s="16">
+        <v>7.1</v>
+      </c>
+      <c r="I130" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K130" s="16">
+        <v>233</v>
+      </c>
+      <c r="L130" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" ht="20.05" customHeight="1">
+      <c r="A131" s="12"/>
+      <c r="B131" t="s" s="13">
+        <v>298</v>
+      </c>
+      <c r="C131" t="s" s="14">
+        <v>280</v>
+      </c>
+      <c r="D131" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="E131" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F131" t="s" s="15">
+        <v>299</v>
+      </c>
+      <c r="G131" s="16">
+        <v>245</v>
+      </c>
+      <c r="H131" s="16">
+        <v>6.8</v>
+      </c>
+      <c r="I131" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J131" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K131" s="16">
+        <v>190</v>
+      </c>
+      <c r="L131" s="16">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="132" ht="20.05" customHeight="1">
+      <c r="A132" s="12"/>
+      <c r="B132" t="s" s="13">
+        <v>300</v>
+      </c>
+      <c r="C132" t="s" s="14">
+        <v>280</v>
+      </c>
+      <c r="D132" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="E132" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F132" t="s" s="15">
+        <v>301</v>
+      </c>
+      <c r="G132" s="16">
+        <v>326</v>
+      </c>
+      <c r="H132" s="16">
+        <v>5.6</v>
+      </c>
+      <c r="I132" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J132" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K132" s="16">
+        <v>205</v>
+      </c>
+      <c r="L132" s="16">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="133" ht="20.05" customHeight="1">
+      <c r="A133" s="12"/>
+      <c r="B133" t="s" s="13">
+        <v>302</v>
+      </c>
+      <c r="C133" t="s" s="14">
+        <v>280</v>
+      </c>
+      <c r="D133" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="E133" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F133" t="s" s="15">
+        <v>303</v>
+      </c>
+      <c r="G133" s="16">
+        <v>204</v>
+      </c>
+      <c r="H133" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="I133" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J133" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K133" s="16">
+        <v>170</v>
+      </c>
+      <c r="L133" s="16">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="134" ht="20.05" customHeight="1">
+      <c r="A134" s="12"/>
+      <c r="B134" t="s" s="13">
+        <v>304</v>
+      </c>
+      <c r="C134" t="s" s="14">
+        <v>280</v>
+      </c>
+      <c r="D134" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="E134" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F134" t="s" s="15">
+        <v>305</v>
+      </c>
+      <c r="G134" s="16">
+        <v>306</v>
+      </c>
+      <c r="H134" s="16">
+        <v>5.6</v>
+      </c>
+      <c r="I134" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J134" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K134" s="16">
+        <v>180</v>
+      </c>
+      <c r="L134" s="16">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="135" ht="20.05" customHeight="1">
+      <c r="A135" s="12"/>
+      <c r="B135" t="s" s="13">
+        <v>306</v>
+      </c>
+      <c r="C135" t="s" s="14">
+        <v>307</v>
+      </c>
+      <c r="D135" t="s" s="14">
+        <v>308</v>
+      </c>
+      <c r="E135" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F135" t="s" s="15">
+        <v>309</v>
+      </c>
+      <c r="G135" s="16">
+        <v>300</v>
+      </c>
+      <c r="H135" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="I135" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K135" s="16">
+        <v>250</v>
+      </c>
+      <c r="L135" s="16">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="136" ht="20.05" customHeight="1">
+      <c r="A136" s="12"/>
+      <c r="B136" t="s" s="13">
+        <v>310</v>
+      </c>
+      <c r="C136" t="s" s="14">
+        <v>307</v>
+      </c>
+      <c r="D136" t="s" s="14">
+        <v>308</v>
+      </c>
+      <c r="E136" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F136" t="s" s="15">
+        <v>311</v>
+      </c>
+      <c r="G136" s="16">
+        <v>150</v>
+      </c>
+      <c r="H136" s="16">
+        <v>8.9</v>
+      </c>
+      <c r="I136" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J136" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K136" s="16">
+        <v>210</v>
+      </c>
+      <c r="L136" s="16">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="137" ht="20.05" customHeight="1">
+      <c r="A137" s="12"/>
+      <c r="B137" t="s" s="13">
+        <v>312</v>
+      </c>
+      <c r="C137" t="s" s="14">
+        <v>307</v>
+      </c>
+      <c r="D137" t="s" s="14">
+        <v>308</v>
+      </c>
+      <c r="E137" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F137" t="s" s="15">
+        <v>313</v>
+      </c>
+      <c r="G137" s="16">
+        <v>163</v>
+      </c>
+      <c r="H137" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="I137" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J137" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K137" s="16">
+        <v>210</v>
+      </c>
+      <c r="L137" s="16">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="138" ht="20.05" customHeight="1">
+      <c r="A138" s="12"/>
+      <c r="B138" t="s" s="13">
+        <v>314</v>
+      </c>
+      <c r="C138" t="s" s="14">
+        <v>307</v>
+      </c>
+      <c r="D138" t="s" s="14">
+        <v>308</v>
+      </c>
+      <c r="E138" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F138" t="s" s="15">
+        <v>315</v>
+      </c>
+      <c r="G138" s="16">
+        <v>170</v>
+      </c>
+      <c r="H138" s="16">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I138" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K138" s="16">
+        <v>213</v>
+      </c>
+      <c r="L138" s="16">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="139" ht="20.05" customHeight="1">
+      <c r="A139" s="12"/>
+      <c r="B139" t="s" s="13">
+        <v>316</v>
+      </c>
+      <c r="C139" t="s" s="14">
+        <v>307</v>
+      </c>
+      <c r="D139" t="s" s="14">
+        <v>308</v>
+      </c>
+      <c r="E139" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F139" t="s" s="15">
+        <v>317</v>
+      </c>
+      <c r="G139" s="16">
+        <v>163</v>
+      </c>
+      <c r="H139" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="I139" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J139" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K139" s="16">
+        <v>207</v>
+      </c>
+      <c r="L139" s="16">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="140" ht="20.05" customHeight="1">
+      <c r="A140" s="12"/>
+      <c r="B140" t="s" s="13">
+        <v>316</v>
+      </c>
+      <c r="C140" t="s" s="14">
+        <v>307</v>
+      </c>
+      <c r="D140" t="s" s="14">
+        <v>308</v>
+      </c>
+      <c r="E140" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F140" t="s" s="15">
+        <v>318</v>
+      </c>
+      <c r="G140" s="16">
+        <v>204</v>
+      </c>
+      <c r="H140" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="I140" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J140" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K140" s="16">
+        <v>170</v>
+      </c>
+      <c r="L140" s="16">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="141" ht="20.05" customHeight="1">
+      <c r="A141" s="12"/>
+      <c r="B141" t="s" s="13">
+        <v>319</v>
+      </c>
+      <c r="C141" t="s" s="14">
+        <v>307</v>
+      </c>
+      <c r="D141" t="s" s="14">
+        <v>308</v>
+      </c>
+      <c r="E141" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F141" t="s" s="15">
+        <v>320</v>
+      </c>
+      <c r="G141" s="16">
+        <v>306</v>
+      </c>
+      <c r="H141" s="16">
+        <v>5.6</v>
+      </c>
+      <c r="I141" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J141" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K141" s="16">
+        <v>180</v>
+      </c>
+      <c r="L141" s="16">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="142" ht="20.05" customHeight="1">
+      <c r="A142" s="12"/>
+      <c r="B142" t="s" s="13">
+        <v>321</v>
+      </c>
+      <c r="C142" t="s" s="14">
+        <v>322</v>
+      </c>
+      <c r="D142" t="s" s="14">
+        <v>323</v>
+      </c>
+      <c r="E142" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s" s="15">
+        <v>324</v>
+      </c>
+      <c r="G142" s="16">
+        <v>208</v>
+      </c>
+      <c r="H142" s="16">
+        <v>7.8</v>
+      </c>
+      <c r="I142" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K142" s="16">
+        <v>215</v>
+      </c>
+      <c r="L142" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="143" ht="20.05" customHeight="1">
+      <c r="A143" s="12"/>
+      <c r="B143" t="s" s="13">
+        <v>325</v>
+      </c>
+      <c r="C143" t="s" s="14">
+        <v>322</v>
+      </c>
+      <c r="D143" t="s" s="14">
+        <v>323</v>
+      </c>
+      <c r="E143" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s" s="15">
+        <v>324</v>
+      </c>
+      <c r="G143" s="16">
+        <v>208</v>
+      </c>
+      <c r="H143" s="16">
+        <v>7.8</v>
+      </c>
+      <c r="I143" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K143" s="16">
+        <v>215</v>
+      </c>
+      <c r="L143" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="144" ht="20.05" customHeight="1">
+      <c r="A144" s="12"/>
+      <c r="B144" t="s" s="13">
+        <v>326</v>
+      </c>
+      <c r="C144" t="s" s="14">
+        <v>322</v>
+      </c>
+      <c r="D144" t="s" s="14">
+        <v>323</v>
+      </c>
+      <c r="E144" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s" s="15">
+        <v>327</v>
+      </c>
+      <c r="G144" s="16">
+        <v>197</v>
+      </c>
+      <c r="H144" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="I144" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J144" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K144" s="16">
+        <v>215</v>
+      </c>
+      <c r="L144" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="145" ht="20.05" customHeight="1">
+      <c r="A145" s="12"/>
+      <c r="B145" t="s" s="13">
+        <v>328</v>
+      </c>
+      <c r="C145" t="s" s="14">
+        <v>322</v>
+      </c>
+      <c r="D145" t="s" s="14">
+        <v>323</v>
+      </c>
+      <c r="E145" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s" s="15">
+        <v>327</v>
+      </c>
+      <c r="G145" s="16">
+        <v>197</v>
+      </c>
+      <c r="H145" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="I145" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J145" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K145" s="16">
+        <v>215</v>
+      </c>
+      <c r="L145" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="146" ht="20.05" customHeight="1">
+      <c r="A146" s="12"/>
+      <c r="B146" t="s" s="13">
+        <v>329</v>
+      </c>
+      <c r="C146" t="s" s="14">
+        <v>322</v>
+      </c>
+      <c r="D146" t="s" s="14">
+        <v>323</v>
+      </c>
+      <c r="E146" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F146" t="s" s="15">
+        <v>330</v>
+      </c>
+      <c r="G146" s="16">
+        <v>299</v>
+      </c>
+      <c r="H146" s="16">
+        <v>6.2</v>
+      </c>
+      <c r="I146" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J146" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K146" s="16">
+        <v>215</v>
+      </c>
+      <c r="L146" s="16">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="147" ht="20.05" customHeight="1">
+      <c r="A147" s="12"/>
+      <c r="B147" t="s" s="13">
+        <v>331</v>
+      </c>
+      <c r="C147" t="s" s="14">
+        <v>322</v>
+      </c>
+      <c r="D147" t="s" s="14">
+        <v>323</v>
+      </c>
+      <c r="E147" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F147" t="s" s="15">
+        <v>332</v>
+      </c>
+      <c r="G147" s="16">
+        <v>303</v>
+      </c>
+      <c r="H147" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="I147" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J147" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K147" s="16">
+        <v>245</v>
+      </c>
+      <c r="L147" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="148" ht="20.05" customHeight="1">
+      <c r="A148" s="12"/>
+      <c r="B148" t="s" s="13">
+        <v>333</v>
+      </c>
+      <c r="C148" t="s" s="14">
+        <v>322</v>
+      </c>
+      <c r="D148" t="s" s="14">
+        <v>323</v>
+      </c>
+      <c r="E148" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s" s="15">
+        <v>334</v>
+      </c>
+      <c r="G148" s="16">
+        <v>398</v>
+      </c>
+      <c r="H148" s="16">
+        <v>4.6</v>
+      </c>
+      <c r="I148" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K148" s="16">
+        <v>250</v>
+      </c>
+      <c r="L148" s="16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="149" ht="20.05" customHeight="1">
+      <c r="A149" s="12"/>
+      <c r="B149" t="s" s="13">
+        <v>335</v>
+      </c>
+      <c r="C149" t="s" s="14">
+        <v>336</v>
+      </c>
+      <c r="D149" t="s" s="14">
+        <v>337</v>
+      </c>
+      <c r="E149" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F149" t="s" s="15">
+        <v>338</v>
+      </c>
+      <c r="G149" s="16">
+        <v>530</v>
+      </c>
+      <c r="H149" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="I149" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K149" s="16">
+        <v>250</v>
+      </c>
+      <c r="L149" s="16">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="150" ht="20.05" customHeight="1">
+      <c r="A150" s="12"/>
+      <c r="B150" t="s" s="13">
+        <v>339</v>
+      </c>
+      <c r="C150" t="s" s="14">
+        <v>336</v>
+      </c>
+      <c r="D150" t="s" s="14">
+        <v>337</v>
+      </c>
+      <c r="E150" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F150" t="s" s="15">
+        <v>340</v>
+      </c>
+      <c r="G150" s="16">
+        <v>298</v>
+      </c>
+      <c r="H150" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="I150" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J150" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K150" s="16">
+        <v>233</v>
+      </c>
+      <c r="L150" s="16">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="151" ht="20.05" customHeight="1">
+      <c r="A151" s="12"/>
+      <c r="B151" t="s" s="13">
+        <v>341</v>
+      </c>
+      <c r="C151" t="s" s="14">
+        <v>336</v>
+      </c>
+      <c r="D151" t="s" s="14">
+        <v>337</v>
+      </c>
+      <c r="E151" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F151" t="s" s="15">
+        <v>342</v>
+      </c>
+      <c r="G151" s="16">
+        <v>352</v>
+      </c>
+      <c r="H151" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="I151" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J151" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K151" s="16">
+        <v>245</v>
+      </c>
+      <c r="L151" s="16">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="152" ht="20.05" customHeight="1">
+      <c r="A152" s="12"/>
+      <c r="B152" t="s" s="13">
+        <v>343</v>
+      </c>
+      <c r="C152" t="s" s="14">
+        <v>336</v>
+      </c>
+      <c r="D152" t="s" s="14">
+        <v>337</v>
+      </c>
+      <c r="E152" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F152" t="s" s="15">
+        <v>344</v>
+      </c>
+      <c r="G152" s="16">
+        <v>381</v>
+      </c>
+      <c r="H152" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="I152" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K152" s="16">
+        <v>250</v>
+      </c>
+      <c r="L152" s="16">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="153" ht="20.05" customHeight="1">
+      <c r="A153" s="12"/>
+      <c r="B153" t="s" s="13">
+        <v>345</v>
+      </c>
+      <c r="C153" t="s" s="14">
+        <v>336</v>
+      </c>
+      <c r="D153" t="s" s="14">
+        <v>337</v>
+      </c>
+      <c r="E153" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F153" t="s" s="15">
+        <v>346</v>
+      </c>
+      <c r="G153" s="16">
+        <v>489</v>
+      </c>
+      <c r="H153" s="16">
+        <v>4.8</v>
+      </c>
+      <c r="I153" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J153" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K153" s="16">
+        <v>250</v>
+      </c>
+      <c r="L153" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154" ht="20.05" customHeight="1">
+      <c r="A154" s="12"/>
+      <c r="B154" t="s" s="13">
+        <v>347</v>
+      </c>
+      <c r="C154" t="s" s="14">
+        <v>348</v>
+      </c>
+      <c r="D154" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E154" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F154" t="s" s="15">
+        <v>349</v>
+      </c>
+      <c r="G154" s="16">
+        <v>625</v>
+      </c>
+      <c r="H154" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="I154" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K154" s="16">
+        <v>250</v>
+      </c>
+      <c r="L154" s="16">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="155" ht="20.05" customHeight="1">
+      <c r="A155" s="12"/>
+      <c r="B155" t="s" s="13">
+        <v>350</v>
+      </c>
+      <c r="C155" t="s" s="14">
+        <v>351</v>
+      </c>
+      <c r="D155" t="s" s="14">
+        <v>352</v>
+      </c>
+      <c r="E155" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F155" t="s" s="15">
+        <v>353</v>
+      </c>
+      <c r="G155" s="16">
+        <v>530</v>
+      </c>
+      <c r="H155" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="I155" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K155" s="16">
+        <v>250</v>
+      </c>
+      <c r="L155" s="16">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="156" ht="20.05" customHeight="1">
+      <c r="A156" s="12"/>
+      <c r="B156" t="s" s="13">
+        <v>354</v>
+      </c>
+      <c r="C156" t="s" s="14">
+        <v>351</v>
+      </c>
+      <c r="D156" t="s" s="14">
+        <v>352</v>
+      </c>
+      <c r="E156" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F156" t="s" s="15">
+        <v>355</v>
+      </c>
+      <c r="G156" s="16">
+        <v>298</v>
+      </c>
+      <c r="H156" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="I156" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J156" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K156" s="16">
+        <v>233</v>
+      </c>
+      <c r="L156" s="16">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="157" ht="20.05" customHeight="1">
+      <c r="A157" s="12"/>
+      <c r="B157" t="s" s="13">
+        <v>356</v>
+      </c>
+      <c r="C157" t="s" s="14">
+        <v>351</v>
+      </c>
+      <c r="D157" t="s" s="14">
+        <v>352</v>
+      </c>
+      <c r="E157" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F157" t="s" s="15">
+        <v>357</v>
+      </c>
+      <c r="G157" s="16">
+        <v>352</v>
+      </c>
+      <c r="H157" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="I157" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J157" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K157" s="16">
+        <v>245</v>
+      </c>
+      <c r="L157" s="16">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="158" ht="20.05" customHeight="1">
+      <c r="A158" s="12"/>
+      <c r="B158" t="s" s="13">
+        <v>358</v>
+      </c>
+      <c r="C158" t="s" s="14">
+        <v>351</v>
+      </c>
+      <c r="D158" t="s" s="14">
+        <v>352</v>
+      </c>
+      <c r="E158" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F158" t="s" s="15">
+        <v>359</v>
+      </c>
+      <c r="G158" s="16">
+        <v>381</v>
+      </c>
+      <c r="H158" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="I158" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J158" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K158" s="16">
+        <v>250</v>
+      </c>
+      <c r="L158" s="16">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="159" ht="20.05" customHeight="1">
+      <c r="A159" s="12"/>
+      <c r="B159" t="s" s="13">
+        <v>360</v>
+      </c>
+      <c r="C159" t="s" s="14">
+        <v>361</v>
+      </c>
+      <c r="D159" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E159" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F159" t="s" s="15">
+        <v>362</v>
+      </c>
+      <c r="G159" s="16">
+        <v>625</v>
+      </c>
+      <c r="H159" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="I159" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K159" s="16">
+        <v>250</v>
+      </c>
+      <c r="L159" s="16">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="160" ht="20.05" customHeight="1">
+      <c r="A160" s="12"/>
+      <c r="B160" t="s" s="13">
+        <v>363</v>
+      </c>
+      <c r="C160" t="s" s="14">
+        <v>364</v>
+      </c>
+      <c r="D160" t="s" s="14">
+        <v>365</v>
+      </c>
+      <c r="E160" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F160" t="s" s="15">
+        <v>366</v>
+      </c>
+      <c r="G160" s="16">
+        <v>530</v>
+      </c>
+      <c r="H160" s="16">
+        <v>4.7</v>
+      </c>
+      <c r="I160" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K160" s="16">
+        <v>250</v>
+      </c>
+      <c r="L160" s="16">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="161" ht="20.05" customHeight="1">
+      <c r="A161" s="12"/>
+      <c r="B161" t="s" s="13">
+        <v>367</v>
+      </c>
+      <c r="C161" t="s" s="14">
+        <v>364</v>
+      </c>
+      <c r="D161" t="s" s="14">
+        <v>365</v>
+      </c>
+      <c r="E161" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F161" t="s" s="15">
+        <v>368</v>
+      </c>
+      <c r="G161" s="16">
+        <v>352</v>
+      </c>
+      <c r="H161" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="I161" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="J161" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K161" s="16">
+        <v>245</v>
+      </c>
+      <c r="L161" s="16">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="162" ht="20.05" customHeight="1">
+      <c r="A162" s="12"/>
+      <c r="B162" t="s" s="13">
+        <v>369</v>
+      </c>
+      <c r="C162" t="s" s="14">
+        <v>364</v>
+      </c>
+      <c r="D162" t="s" s="14">
+        <v>365</v>
+      </c>
+      <c r="E162" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F162" t="s" s="15">
+        <v>370</v>
+      </c>
+      <c r="G162" s="16">
+        <v>381</v>
+      </c>
+      <c r="H162" s="16">
+        <v>5.8</v>
+      </c>
+      <c r="I162" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K162" s="16">
+        <v>250</v>
+      </c>
+      <c r="L162" s="16">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="163" ht="20.05" customHeight="1">
+      <c r="A163" s="12"/>
+      <c r="B163" t="s" s="13">
+        <v>371</v>
+      </c>
+      <c r="C163" t="s" s="14">
+        <v>372</v>
+      </c>
+      <c r="D163" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E163" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F163" t="s" s="15">
+        <v>373</v>
+      </c>
+      <c r="G163" s="16">
+        <v>476</v>
+      </c>
+      <c r="H163" s="16">
+        <v>5.1</v>
+      </c>
+      <c r="I163" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J163" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K163" s="16">
+        <v>250</v>
+      </c>
+      <c r="L163" s="16">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="164" ht="20.05" customHeight="1">
+      <c r="A164" s="12"/>
+      <c r="B164" t="s" s="13">
+        <v>374</v>
+      </c>
+      <c r="C164" t="s" s="14">
+        <v>372</v>
+      </c>
+      <c r="D164" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E164" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F164" t="s" s="15">
+        <v>375</v>
+      </c>
+      <c r="G164" s="16">
+        <v>748</v>
+      </c>
+      <c r="H164" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="I164" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="J164" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K164" s="16">
+        <v>250</v>
+      </c>
+      <c r="L164" s="16">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="165" ht="20.05" customHeight="1">
+      <c r="A165" s="12"/>
+      <c r="B165" t="s" s="13">
+        <v>376</v>
+      </c>
+      <c r="C165" t="s" s="14">
+        <v>377</v>
+      </c>
+      <c r="D165" t="s" s="14">
+        <v>323</v>
+      </c>
+      <c r="E165" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F165" t="s" s="15">
+        <v>378</v>
+      </c>
+      <c r="G165" s="16">
+        <v>469</v>
+      </c>
+      <c r="H165" s="16">
+        <v>4.9</v>
+      </c>
+      <c r="I165" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J165" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K165" s="16">
+        <v>210</v>
+      </c>
+      <c r="L165" s="16">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="166" ht="20.05" customHeight="1">
+      <c r="A166" s="12"/>
+      <c r="B166" t="s" s="13">
+        <v>379</v>
+      </c>
+      <c r="C166" t="s" s="14">
+        <v>380</v>
+      </c>
+      <c r="D166" t="s" s="14">
+        <v>381</v>
+      </c>
+      <c r="E166" t="s" s="14">
+        <v>160</v>
+      </c>
+      <c r="F166" t="s" s="15">
+        <v>382</v>
+      </c>
+      <c r="G166" s="16">
+        <v>340</v>
+      </c>
+      <c r="H166" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="I166" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K166" s="16">
+        <v>250</v>
+      </c>
+      <c r="L166" s="16">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" ht="20.05" customHeight="1">
+      <c r="A167" s="12"/>
+      <c r="B167" t="s" s="13">
+        <v>383</v>
+      </c>
+      <c r="C167" t="s" s="14">
+        <v>380</v>
+      </c>
+      <c r="D167" t="s" s="14">
+        <v>381</v>
+      </c>
+      <c r="E167" t="s" s="14">
+        <v>160</v>
+      </c>
+      <c r="F167" t="s" s="15">
+        <v>384</v>
+      </c>
+      <c r="G167" s="16">
+        <v>197</v>
+      </c>
+      <c r="H167" s="16">
+        <v>6.8</v>
+      </c>
+      <c r="I167" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J167" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K167" s="16">
+        <v>241</v>
+      </c>
+      <c r="L167" s="16">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="168" ht="20.05" customHeight="1">
+      <c r="A168" s="12"/>
+      <c r="B168" t="s" s="13">
+        <v>385</v>
+      </c>
+      <c r="C168" t="s" s="14">
+        <v>380</v>
+      </c>
+      <c r="D168" t="s" s="14">
+        <v>381</v>
+      </c>
+      <c r="E168" t="s" s="14">
+        <v>160</v>
+      </c>
+      <c r="F168" t="s" s="15">
+        <v>386</v>
+      </c>
+      <c r="G168" s="16">
+        <v>258</v>
+      </c>
+      <c r="H168" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="I168" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="K168" s="16">
+        <v>250</v>
+      </c>
+      <c r="L168" s="16">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="169" ht="20.05" customHeight="1">
+      <c r="A169" s="12"/>
+      <c r="B169" t="s" s="13">
+        <v>387</v>
+      </c>
+      <c r="C169" t="s" s="14">
+        <v>388</v>
+      </c>
+      <c r="D169" t="s" s="14">
+        <v>389</v>
+      </c>
+      <c r="E169" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F169" t="s" s="15">
+        <v>390</v>
+      </c>
+      <c r="G169" s="16">
+        <v>659</v>
+      </c>
+      <c r="H169" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="I169" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J169" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K169" s="16">
+        <v>250</v>
+      </c>
+      <c r="L169" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="170" ht="20.05" customHeight="1">
+      <c r="A170" s="12"/>
+      <c r="B170" t="s" s="13">
+        <v>391</v>
+      </c>
+      <c r="C170" t="s" s="14">
+        <v>388</v>
+      </c>
+      <c r="D170" t="s" s="14">
+        <v>389</v>
+      </c>
+      <c r="E170" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F170" t="s" s="15">
+        <v>392</v>
+      </c>
+      <c r="G170" s="16">
+        <v>408</v>
+      </c>
+      <c r="H170" s="16">
+        <v>5.1</v>
+      </c>
+      <c r="I170" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J170" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K170" s="16">
+        <v>200</v>
+      </c>
+      <c r="L170" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" ht="20.05" customHeight="1">
+      <c r="A171" s="12"/>
+      <c r="B171" t="s" s="13">
+        <v>393</v>
+      </c>
+      <c r="C171" t="s" s="14">
+        <v>388</v>
+      </c>
+      <c r="D171" t="s" s="14">
+        <v>389</v>
+      </c>
+      <c r="E171" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="F171" t="s" s="15">
+        <v>394</v>
+      </c>
+      <c r="G171" s="16">
+        <v>544</v>
+      </c>
+      <c r="H171" s="16">
+        <v>4.6</v>
+      </c>
+      <c r="I171" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="J171" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K171" s="16">
+        <v>200</v>
+      </c>
+      <c r="L171" s="16">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
